--- a/analysis/analyze.xlsx
+++ b/analysis/analyze.xlsx
@@ -5,14 +5,14 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cwang224\Desktop\Knee-Loading-Analysis\outcome\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cwang224\Desktop\Knee-Loading-Analysis\analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" tabRatio="743"/>
   </bookViews>
   <sheets>
-    <sheet name="Model evaluation" sheetId="2" r:id="rId1"/>
+    <sheet name="Data and Features" sheetId="11" r:id="rId1"/>
     <sheet name="Noraxon random forest" sheetId="1" r:id="rId2"/>
     <sheet name="IoT random forest" sheetId="5" r:id="rId3"/>
     <sheet name="Noraxon random forest-R" sheetId="6" r:id="rId4"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="170">
   <si>
     <t>subject</t>
   </si>
@@ -188,18 +188,6 @@
     <t>S41-R</t>
   </si>
   <si>
-    <t>method</t>
-  </si>
-  <si>
-    <t>lasso-left KAM</t>
-  </si>
-  <si>
-    <t>lasso-right KAM</t>
-  </si>
-  <si>
-    <t>random forest-left KAM</t>
-  </si>
-  <si>
     <t>Dataset</t>
   </si>
   <si>
@@ -209,9 +197,6 @@
     <t>IoT</t>
   </si>
   <si>
-    <t>random forest-right KAM</t>
-  </si>
-  <si>
     <t>iot-S10-L</t>
   </si>
   <si>
@@ -297,13 +282,271 @@
   </si>
   <si>
     <t>IoT random forest-R</t>
+  </si>
+  <si>
+    <t>LLACx</t>
+  </si>
+  <si>
+    <t>Left lateral Accelerometer x</t>
+  </si>
+  <si>
+    <t>RLGYz</t>
+  </si>
+  <si>
+    <t>Right lateral Gyroscope z</t>
+  </si>
+  <si>
+    <t>LLACy</t>
+  </si>
+  <si>
+    <t>Left lateral Accelerometer y</t>
+  </si>
+  <si>
+    <t>RMACx</t>
+  </si>
+  <si>
+    <t>Right medial Accelerometer x</t>
+  </si>
+  <si>
+    <t>LLACz</t>
+  </si>
+  <si>
+    <t>Left lateral Accelerometer z</t>
+  </si>
+  <si>
+    <t>RMACy</t>
+  </si>
+  <si>
+    <t>Right medial Accelerometer y</t>
+  </si>
+  <si>
+    <t>LLGYx</t>
+  </si>
+  <si>
+    <t>Left lateral Gyroscope x</t>
+  </si>
+  <si>
+    <t>RMACz</t>
+  </si>
+  <si>
+    <t>Right medial Accelerometer z</t>
+  </si>
+  <si>
+    <t>LLGYy</t>
+  </si>
+  <si>
+    <t>Left lateral Gyroscope y</t>
+  </si>
+  <si>
+    <t>RMGYx</t>
+  </si>
+  <si>
+    <t>Right medial Gyroscope x</t>
+  </si>
+  <si>
+    <t>LLGYz</t>
+  </si>
+  <si>
+    <t>Left lateral Gyroscope z</t>
+  </si>
+  <si>
+    <t>RMGYy</t>
+  </si>
+  <si>
+    <t>Right medial Gyroscope y</t>
+  </si>
+  <si>
+    <t>LMACx</t>
+  </si>
+  <si>
+    <t>Left medial Accelerometer x</t>
+  </si>
+  <si>
+    <t>RMGYz</t>
+  </si>
+  <si>
+    <t>Right medial Gyroscope z</t>
+  </si>
+  <si>
+    <t>LMACy</t>
+  </si>
+  <si>
+    <t>Left medial Accelerometer y</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>LMACz</t>
+  </si>
+  <si>
+    <t>Left medial Accelerometer z</t>
+  </si>
+  <si>
+    <t>mass</t>
+  </si>
+  <si>
+    <t>LMGYx</t>
+  </si>
+  <si>
+    <t>Left medial Gyroscope x</t>
+  </si>
+  <si>
+    <t>height</t>
+  </si>
+  <si>
+    <t>LMGYy</t>
+  </si>
+  <si>
+    <t>Left medial Gyroscope y</t>
+  </si>
+  <si>
+    <t>Lleglen</t>
+  </si>
+  <si>
+    <t>Left leg length</t>
+  </si>
+  <si>
+    <t>LMGYz</t>
+  </si>
+  <si>
+    <t>Left medial Gyroscope z</t>
+  </si>
+  <si>
+    <t>LkneeWid</t>
+  </si>
+  <si>
+    <t>Left knee width</t>
+  </si>
+  <si>
+    <t>RLACx</t>
+  </si>
+  <si>
+    <t>Right lateral Accelerometer x</t>
+  </si>
+  <si>
+    <t>Rleglen</t>
+  </si>
+  <si>
+    <t>Right leg length</t>
+  </si>
+  <si>
+    <t>RLACy</t>
+  </si>
+  <si>
+    <t>Right lateral Accelerometer y</t>
+  </si>
+  <si>
+    <t>LankleWid</t>
+  </si>
+  <si>
+    <t>Left ankle width</t>
+  </si>
+  <si>
+    <t>RLACz</t>
+  </si>
+  <si>
+    <t>Right lateral Accelerometer z</t>
+  </si>
+  <si>
+    <t>RkneeWid</t>
+  </si>
+  <si>
+    <t>Right knee width</t>
+  </si>
+  <si>
+    <t>RLGYx</t>
+  </si>
+  <si>
+    <t>Right lateral Gyroscope x</t>
+  </si>
+  <si>
+    <t>RankleWid</t>
+  </si>
+  <si>
+    <t>Right ankle width</t>
+  </si>
+  <si>
+    <t>RLGYy</t>
+  </si>
+  <si>
+    <t>Right lateral Gyroscope y</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>Features</t>
+  </si>
+  <si>
+    <t>Subjects</t>
+  </si>
+  <si>
+    <t>Left foot</t>
+  </si>
+  <si>
+    <t>Right foot</t>
+  </si>
+  <si>
+    <t>Model evaluation</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>LASSO-left KAM</t>
+  </si>
+  <si>
+    <t>LASSO -right KAM</t>
+  </si>
+  <si>
+    <t>Random forest-left KAM</t>
+  </si>
+  <si>
+    <t>Random forest-right KAM</t>
+  </si>
+  <si>
+    <t>LASSO -left KAM</t>
+  </si>
+  <si>
+    <t>Confusion matrix result</t>
+  </si>
+  <si>
+    <t>Mean KAM</t>
+  </si>
+  <si>
+    <t>Noraxon Random forest-L</t>
+  </si>
+  <si>
+    <t>Noraxon Random forest-R</t>
+  </si>
+  <si>
+    <t>IoT Random forest-L</t>
+  </si>
+  <si>
+    <t>IoT Random forest-R</t>
+  </si>
+  <si>
+    <t>true positive</t>
+  </si>
+  <si>
+    <t>true negative</t>
+  </si>
+  <si>
+    <t>false positive</t>
+  </si>
+  <si>
+    <t>false negative</t>
+  </si>
+  <si>
+    <t>Abbreviation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -312,10 +555,57 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF212121"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -326,7 +616,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -334,11 +624,63 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -346,11 +688,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -632,146 +1026,648 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="C4:R29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="25.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" style="2"/>
+    <col min="2" max="2" width="9.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" customWidth="1"/>
+    <col min="10" max="10" width="25.5703125" customWidth="1"/>
+    <col min="11" max="11" width="24.5703125" customWidth="1"/>
+    <col min="12" max="12" width="14" customWidth="1"/>
+    <col min="13" max="13" width="15.5703125" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" customWidth="1"/>
+    <col min="16" max="16" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="4" spans="3:16" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="J5" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="O5" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C6" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="L6" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="M6" s="8" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="O6" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="7" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C7" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="2">
+      <c r="D7" s="10">
+        <v>22</v>
+      </c>
+      <c r="E7" s="10">
+        <v>20940</v>
+      </c>
+      <c r="F7" s="10">
+        <v>20504</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="L7" s="10">
         <v>0.51859999999999995</v>
       </c>
-      <c r="D2" s="2">
+      <c r="M7" s="10">
         <v>7.6959999999999997E-3</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="O7" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="P7" s="9" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C8" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="2">
+      <c r="D8" s="10">
+        <v>12</v>
+      </c>
+      <c r="E8" s="10">
+        <v>11163</v>
+      </c>
+      <c r="F8" s="10">
+        <v>12525</v>
+      </c>
+      <c r="J8" s="11"/>
+      <c r="K8" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="L8" s="10">
         <v>0.3987</v>
       </c>
-      <c r="D3" s="2">
+      <c r="M8" s="10">
         <v>8.6250000000000007E-3</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="2">
+      <c r="O8" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="P8" s="9" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="9" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J9" s="11"/>
+      <c r="K9" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="L9" s="10">
         <v>0.93489999999999995</v>
       </c>
-      <c r="D4" s="2">
+      <c r="M9" s="10">
         <v>2.8509999999999998E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" s="2">
+    <row r="10" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J10" s="11"/>
+      <c r="K10" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="L10" s="10">
         <v>0.92959999999999998</v>
       </c>
-      <c r="D5" s="2">
+      <c r="M10" s="10">
         <v>2.9559999999999999E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="2">
+    <row r="11" spans="3:16" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C11" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="J11" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="L11" s="10">
         <v>0.47452</v>
       </c>
-      <c r="D6" s="2">
+      <c r="M11" s="10">
         <v>7.6160000000000004E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="2">
+    <row r="12" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C12" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="J12" s="11"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+    </row>
+    <row r="13" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C13" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="J13" s="11"/>
+      <c r="K13" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="L13" s="10">
         <v>0.23549999999999999</v>
       </c>
-      <c r="D7" s="2">
+      <c r="M13" s="10">
         <v>9.2530000000000008E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" s="2">
+    <row r="14" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C14" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="J14" s="11"/>
+      <c r="K14" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="L14" s="10">
         <v>0.93859999999999999</v>
       </c>
-      <c r="D8" s="2">
+      <c r="M14" s="10">
         <v>2.6280000000000001E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0.9385</v>
-      </c>
-      <c r="D9" s="2">
-        <v>2.624E-3</v>
+    <row r="15" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C15" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C16" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="3:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C17" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C18" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="J18" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16"/>
+      <c r="R18" s="17"/>
+    </row>
+    <row r="19" spans="3:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="L19" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="M19" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="N19" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="O19" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="P19" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q19" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="R19" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="3:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C20" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="J20" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="K20" s="19">
+        <v>0.90939999999999999</v>
+      </c>
+      <c r="L20" s="19">
+        <v>2.8E-3</v>
+      </c>
+      <c r="M20" s="19">
+        <v>1.6799999999999999E-2</v>
+      </c>
+      <c r="N20" s="19">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="O20" s="19">
+        <v>0.8427</v>
+      </c>
+      <c r="P20" s="19">
+        <v>0.95950000000000002</v>
+      </c>
+      <c r="Q20" s="19">
+        <v>4.0500000000000001E-2</v>
+      </c>
+      <c r="R20" s="19">
+        <v>0.1573</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C21" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="J21" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="K21" s="19">
+        <v>0.91979999999999995</v>
+      </c>
+      <c r="L21" s="19">
+        <v>2.7360000000000002E-3</v>
+      </c>
+      <c r="M21" s="19">
+        <v>1.8100000000000002E-2</v>
+      </c>
+      <c r="N21" s="19">
+        <v>0.15495</v>
+      </c>
+      <c r="O21" s="19">
+        <v>0.86229999999999996</v>
+      </c>
+      <c r="P21" s="19">
+        <v>0.9587</v>
+      </c>
+      <c r="Q21" s="19">
+        <v>4.1200000000000001E-2</v>
+      </c>
+      <c r="R21" s="19">
+        <v>0.1376</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C22" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="J22" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="K22" s="19">
+        <v>0.96640000000000004</v>
+      </c>
+      <c r="L22" s="19">
+        <v>1.65E-3</v>
+      </c>
+      <c r="M22" s="19">
+        <v>1.6580000000000001E-2</v>
+      </c>
+      <c r="N22" s="19">
+        <v>0.1021</v>
+      </c>
+      <c r="O22" s="19">
+        <v>0.92290000000000005</v>
+      </c>
+      <c r="P22" s="19">
+        <v>0.98050000000000004</v>
+      </c>
+      <c r="Q22" s="19">
+        <v>1.95E-2</v>
+      </c>
+      <c r="R22" s="19">
+        <v>7.6999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C23" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="J23" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="K23" s="19">
+        <v>0.9556</v>
+      </c>
+      <c r="L23" s="19">
+        <v>1.7819999999999999E-3</v>
+      </c>
+      <c r="M23" s="19">
+        <v>1.4800000000000001E-2</v>
+      </c>
+      <c r="N23" s="19">
+        <v>0.123</v>
+      </c>
+      <c r="O23" s="19">
+        <v>0.91310000000000002</v>
+      </c>
+      <c r="P23" s="19">
+        <v>0.97529999999999994</v>
+      </c>
+      <c r="Q23" s="19">
+        <v>2.47E-2</v>
+      </c>
+      <c r="R23" s="19">
+        <v>8.6889999999999995E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C24" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C25" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="J25" s="21"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="22"/>
+      <c r="P25" s="22"/>
+      <c r="Q25" s="22"/>
+      <c r="R25" s="22"/>
+    </row>
+    <row r="26" spans="3:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C26" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+    </row>
+    <row r="27" spans="3:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="J27" s="21"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="22"/>
+      <c r="P27" s="22"/>
+      <c r="Q27" s="22"/>
+      <c r="R27" s="22"/>
+    </row>
+    <row r="28" spans="3:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C28" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="F28" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="J28" s="12"/>
+    </row>
+    <row r="29" spans="3:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C29" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="F29" s="18" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="J18:R18"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="J7:J10"/>
+    <mergeCell ref="J11:J14"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -782,8 +1678,8 @@
   <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J34" sqref="J34"/>
+      <pane ySplit="2" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B46" sqref="B46:I46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -795,17 +1691,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
+      <c r="A1" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -2134,7 +3030,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3:B26"/>
+      <selection pane="bottomLeft" activeCell="B26" sqref="B26:I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2145,17 +3041,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
+      <c r="A1" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -2188,7 +3084,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B3" s="1">
         <v>0.97019999999999995</v>
@@ -2217,7 +3113,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B4" s="1">
         <v>0.9476</v>
@@ -2246,7 +3142,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B5" s="1">
         <v>0.98160000000000003</v>
@@ -2275,7 +3171,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B6" s="1">
         <v>0.98170000000000002</v>
@@ -2304,7 +3200,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B7" s="1">
         <v>0.97370000000000001</v>
@@ -2333,7 +3229,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B8" s="1">
         <v>0.96450000000000002</v>
@@ -2362,7 +3258,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B9" s="1">
         <v>0.91749999999999998</v>
@@ -2391,7 +3287,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B10" s="1">
         <v>0.92400000000000004</v>
@@ -2420,7 +3316,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B11" s="1">
         <v>0.96379999999999999</v>
@@ -2449,7 +3345,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B12" s="1">
         <v>0.96809999999999996</v>
@@ -2478,7 +3374,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B13" s="1">
         <v>0.98350000000000004</v>
@@ -2507,7 +3403,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B14" s="1">
         <v>0.97170000000000001</v>
@@ -2536,7 +3432,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B15" s="1">
         <v>0.96840000000000004</v>
@@ -2565,7 +3461,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B16" s="1">
         <v>0.93920000000000003</v>
@@ -2594,7 +3490,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B17" s="1">
         <v>0.95899999999999996</v>
@@ -2623,7 +3519,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B18" s="1">
         <v>0.95489999999999997</v>
@@ -2652,7 +3548,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B19" s="1">
         <v>0.94630000000000003</v>
@@ -2681,7 +3577,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B20" s="1">
         <v>0.90129999999999999</v>
@@ -2710,7 +3606,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B21" s="1">
         <v>0.98170000000000002</v>
@@ -2739,7 +3635,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B22" s="1">
         <v>0.96919999999999995</v>
@@ -2768,7 +3664,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B23" s="1">
         <v>0.98899999999999999</v>
@@ -2797,7 +3693,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B24" s="1">
         <v>0.9899</v>
@@ -2826,7 +3722,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B25" s="1">
         <v>0.96289999999999998</v>
@@ -2904,7 +3800,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O30" sqref="O30"/>
+      <selection pane="bottomLeft" activeCell="B24" sqref="B24:I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2916,17 +3812,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
+      <c r="A1" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -3617,7 +4513,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J39" sqref="J39"/>
+      <selection pane="bottomLeft" activeCell="B25" sqref="B25:I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3629,17 +4525,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
+      <c r="A1" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -4359,7 +5255,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L25" sqref="L25"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15:I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4368,17 +5264,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
+      <c r="A1" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -4411,7 +5307,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B3" s="1">
         <v>0.97019999999999995</v>
@@ -4440,7 +5336,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B4" s="1">
         <v>0.98160000000000003</v>
@@ -4469,7 +5365,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B5" s="1">
         <v>0.97370000000000001</v>
@@ -4498,7 +5394,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B6" s="1">
         <v>0.91749999999999998</v>
@@ -4527,7 +5423,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B7" s="1">
         <v>0.96379999999999999</v>
@@ -4556,7 +5452,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B8" s="1">
         <v>0.98350000000000004</v>
@@ -4585,7 +5481,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B9" s="1">
         <v>0.96840000000000004</v>
@@ -4614,7 +5510,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B10" s="1">
         <v>0.95899999999999996</v>
@@ -4643,7 +5539,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B11" s="1">
         <v>0.94630000000000003</v>
@@ -4672,7 +5568,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B12" s="1">
         <v>0.98170000000000002</v>
@@ -4701,7 +5597,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B13" s="1">
         <v>0.98899999999999999</v>
@@ -4730,7 +5626,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B14" s="1">
         <v>0.96289999999999998</v>
@@ -4818,8 +5714,8 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G23" sqref="G23"/>
+      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C39" sqref="C39:C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4828,17 +5724,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
+      <c r="A1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -4871,7 +5767,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B3" s="1">
         <v>0.9476</v>
@@ -4900,7 +5796,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B4" s="1">
         <v>0.98170000000000002</v>
@@ -4929,7 +5825,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B5" s="1">
         <v>0.96450000000000002</v>
@@ -4958,7 +5854,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B6" s="1">
         <v>0.92400000000000004</v>
@@ -4987,7 +5883,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B7" s="1">
         <v>0.96809999999999996</v>
@@ -5016,7 +5912,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B8" s="1">
         <v>0.97170000000000001</v>
@@ -5045,7 +5941,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B9" s="1">
         <v>0.93920000000000003</v>
@@ -5074,7 +5970,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B10" s="1">
         <v>0.95489999999999997</v>
@@ -5103,7 +5999,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B11" s="1">
         <v>0.90129999999999999</v>
@@ -5132,7 +6028,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B12" s="1">
         <v>0.96919999999999995</v>
@@ -5161,7 +6057,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B13" s="1">
         <v>0.9899</v>

--- a/analysis/analyze.xlsx
+++ b/analysis/analyze.xlsx
@@ -9,16 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" tabRatio="743"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" tabRatio="743" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Data and Features" sheetId="11" r:id="rId1"/>
-    <sheet name="Noraxon random forest" sheetId="1" r:id="rId2"/>
-    <sheet name="IoT random forest" sheetId="5" r:id="rId3"/>
-    <sheet name="Noraxon random forest-R" sheetId="6" r:id="rId4"/>
-    <sheet name="Noraxon random forest-L" sheetId="7" r:id="rId5"/>
-    <sheet name="IoT random forest-L" sheetId="8" r:id="rId6"/>
-    <sheet name="IoT random forest-R" sheetId="9" r:id="rId7"/>
+    <sheet name="coefficient" sheetId="12" r:id="rId2"/>
+    <sheet name="Noraxon random forest" sheetId="1" r:id="rId3"/>
+    <sheet name="IoT random forest" sheetId="5" r:id="rId4"/>
+    <sheet name="Noraxon random forest-R" sheetId="6" r:id="rId5"/>
+    <sheet name="Noraxon random forest-L" sheetId="7" r:id="rId6"/>
+    <sheet name="IoT random forest-L" sheetId="8" r:id="rId7"/>
+    <sheet name="IoT random forest-R" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="207">
   <si>
     <t>subject</t>
   </si>
@@ -540,6 +541,117 @@
   </si>
   <si>
     <t>Abbreviation</t>
+  </si>
+  <si>
+    <t>Left coefficient</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LLGYz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RankleWid</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LMACy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RLGYz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LkneeWid</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LLACz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RMGYz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LLACy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RMACx</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LMACx</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LMGYz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RMACy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rleglen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RLACy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LLGYx</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LLGYy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RLACx</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RLGYy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RLACz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LMGYy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RLGYx</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RkneeWid</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LankleWid</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RMGYy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LMACz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LMGYx</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RMGYx</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RMACz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> age</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mass</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> height</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lleglen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> gender_M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> gender_F</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LLACx</t>
+  </si>
+  <si>
+    <t>Right coefficient</t>
   </si>
 </sst>
 </file>
@@ -680,7 +792,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -688,14 +800,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -722,15 +828,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -745,6 +842,24 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -761,6 +876,2133 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Right foot</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>coefficient!$D$4:$D$38</c:f>
+              <c:strCache>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>LLACx</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v> LLGYz</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v> RankleWid</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v> LMACy</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v> RLGYz</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v> LkneeWid</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v> LLACz</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v> RMGYz</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v> LLACy</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v> RMACx</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v> LMACx</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v> LMGYz</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v> RMACy</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v> Rleglen</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v> RLACy</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v> LLGYx</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v> LLGYy</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v> RLACx</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v> RLGYy</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v> RLACz</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v> LMGYy</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v> RLGYx</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v> RkneeWid</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v> LankleWid</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v> RMGYy</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v> LMACz</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v> LMGYx</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v> RMGYx</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v> RMACz</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v> age</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v> mass</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v> height</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v> Lleglen</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v> gender_M</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v> gender_F</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>coefficient!$E$4:$E$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>0.25939072054060802</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.130622840267926</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.107055319938611</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.5657781754163997E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0679502412865901E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5811990542492303E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0048173504884802E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.0034020051686199E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.6862380884943901E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5738809685280299E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.3383702253420999E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.2933907970845699E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.2298460962854299E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.0995593463716301E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.6216696140536099E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.40277862664074E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.3886242625483099E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.34009988745985E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.2803188535949601E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.26520282638051E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.1704273498065401E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.1134064091048199E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.02074501982661E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.7485785934044696E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8.5079789905591202E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.8721328362123203E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.8622856187705002E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.1832026324675103E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.4825948518893702E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.3308012312194E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.0009839358514697E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.0313942754427599E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.9214508520093501E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.1283001936043703E-4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.9983343435075199E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-44F8-4CD9-8DB8-3D2158A69BFD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="512040047"/>
+        <c:axId val="512039215"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="512040047"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="512039215"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="512039215"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="512040047"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Left foot</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>coefficient!$G$4:$G$38</c:f>
+              <c:strCache>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>RMACx</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v> RLACz</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v> RLGYy</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v> LMGYz</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v> LLGYz</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v> height</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v> RankleWid</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v> Rleglen</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v> RMGYy</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v> RMGYz</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v> LkneeWid</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v> mass</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v> LLACx</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v> RMACy</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v> RMACz</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v> LMACy</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v> RLGYz</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v> LLGYy</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v> RLACy</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v> RMGYx</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v> RkneeWid</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v> RLGYx</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v> LMACx</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v> Lleglen</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v> LLGYx</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v> LLACy</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v> LMGYy</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v> RLACx</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v> LLACz</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v> LMACz</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v> age</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v> LMGYx</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v> LankleWid</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v> gender_F</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v> gender_M</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>coefficient!$H$4:$H$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>0.25554796527097401</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.2405772025782295E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.5550015265496198E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0860476788209E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.4063083066198099E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.62520362108502E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.5756767654865899E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.3764641649320401E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.3176858287543999E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.7344953106372302E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.6317366384022899E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.58350331263522E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.9961798085714199E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.93241014977703E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.8666603698988E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.7366026247429001E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.73273187578298E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.72299595448836E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.6625835978022599E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.65915336406855E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.54223770323301E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.48209011547452E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.4531776753710699E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.3940119555324501E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.15081020160623E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.06245656541556E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.0213767342805199E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.3798036486073197E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8.8064275838203396E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.80353192314036E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.6564548648511898E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7.21062245606819E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.1297641458099303E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.14219836295875E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8.4144121829763296E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3035-43F5-B411-6E2A74F7E72E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="512707215"/>
+        <c:axId val="512707631"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="512707215"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="512707631"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="512707631"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="512707215"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1028,8 +3270,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:R29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1049,613 +3291,613 @@
   </cols>
   <sheetData>
     <row r="4" spans="3:16" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="J4" s="5"/>
+      <c r="J4" s="4"/>
     </row>
     <row r="5" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="J5" s="6" t="s">
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="J5" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="O5" s="9" t="s">
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="O5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="P5" s="9" t="s">
+      <c r="P5" s="7" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="6" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="J6" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="K6" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="L6" s="8" t="s">
+      <c r="L6" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="M6" s="8" t="s">
+      <c r="M6" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="O6" s="9" t="s">
+      <c r="O6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="P6" s="9" t="s">
+      <c r="P6" s="7" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="7" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="8">
         <v>22</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="8">
         <v>20940</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="8">
         <v>20504</v>
       </c>
-      <c r="J7" s="11" t="s">
+      <c r="J7" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="K7" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="L7" s="10">
+      <c r="L7" s="8">
         <v>0.51859999999999995</v>
       </c>
-      <c r="M7" s="10">
+      <c r="M7" s="8">
         <v>7.6959999999999997E-3</v>
       </c>
-      <c r="O7" s="9" t="s">
+      <c r="O7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="P7" s="9" t="s">
+      <c r="P7" s="7" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="8" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="8">
         <v>12</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="8">
         <v>11163</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="8">
         <v>12525</v>
       </c>
-      <c r="J8" s="11"/>
-      <c r="K8" s="9" t="s">
+      <c r="J8" s="22"/>
+      <c r="K8" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="L8" s="10">
+      <c r="L8" s="8">
         <v>0.3987</v>
       </c>
-      <c r="M8" s="10">
+      <c r="M8" s="8">
         <v>8.6250000000000007E-3</v>
       </c>
-      <c r="O8" s="9" t="s">
+      <c r="O8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="P8" s="9" t="s">
+      <c r="P8" s="7" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="9" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="J9" s="11"/>
-      <c r="K9" s="9" t="s">
+      <c r="J9" s="22"/>
+      <c r="K9" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="L9" s="10">
+      <c r="L9" s="8">
         <v>0.93489999999999995</v>
       </c>
-      <c r="M9" s="10">
+      <c r="M9" s="8">
         <v>2.8509999999999998E-3</v>
       </c>
     </row>
     <row r="10" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="J10" s="11"/>
-      <c r="K10" s="9" t="s">
+      <c r="J10" s="22"/>
+      <c r="K10" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="L10" s="10">
+      <c r="L10" s="8">
         <v>0.92959999999999998</v>
       </c>
-      <c r="M10" s="10">
+      <c r="M10" s="8">
         <v>2.9559999999999999E-3</v>
       </c>
     </row>
     <row r="11" spans="3:16" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="J11" s="11" t="s">
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="J11" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="K11" s="9" t="s">
+      <c r="K11" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="L11" s="10">
+      <c r="L11" s="8">
         <v>0.47452</v>
       </c>
-      <c r="M11" s="10">
+      <c r="M11" s="8">
         <v>7.6160000000000004E-3</v>
       </c>
     </row>
     <row r="12" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="J12" s="11"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
     </row>
     <row r="13" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="J13" s="11"/>
-      <c r="K13" s="9" t="s">
+      <c r="J13" s="22"/>
+      <c r="K13" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="L13" s="10">
+      <c r="L13" s="8">
         <v>0.23549999999999999</v>
       </c>
-      <c r="M13" s="10">
+      <c r="M13" s="8">
         <v>9.2530000000000008E-3</v>
       </c>
     </row>
     <row r="14" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="J14" s="11"/>
-      <c r="K14" s="9" t="s">
+      <c r="J14" s="22"/>
+      <c r="K14" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="L14" s="10">
+      <c r="L14" s="8">
         <v>0.93859999999999999</v>
       </c>
-      <c r="M14" s="10">
+      <c r="M14" s="8">
         <v>2.6280000000000001E-3</v>
       </c>
     </row>
     <row r="15" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="7" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="16" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="7" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="17" spans="3:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="7" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="18" spans="3:18" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="J18" s="15" t="s">
+      <c r="J18" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="16"/>
-      <c r="R18" s="17"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="20"/>
     </row>
     <row r="19" spans="3:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="J19" s="7" t="s">
+      <c r="J19" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="K19" s="8" t="s">
+      <c r="K19" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="L19" s="8" t="s">
+      <c r="L19" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="M19" s="13" t="s">
+      <c r="M19" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="N19" s="14" t="s">
+      <c r="N19" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="O19" s="8" t="s">
+      <c r="O19" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="P19" s="8" t="s">
+      <c r="P19" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="Q19" s="8" t="s">
+      <c r="Q19" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="R19" s="8" t="s">
+      <c r="R19" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="20" spans="3:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="J20" s="20" t="s">
+      <c r="J20" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="K20" s="19">
+      <c r="K20" s="14">
         <v>0.90939999999999999</v>
       </c>
-      <c r="L20" s="19">
+      <c r="L20" s="14">
         <v>2.8E-3</v>
       </c>
-      <c r="M20" s="19">
+      <c r="M20" s="14">
         <v>1.6799999999999999E-2</v>
       </c>
-      <c r="N20" s="19">
+      <c r="N20" s="14">
         <v>0.17299999999999999</v>
       </c>
-      <c r="O20" s="19">
+      <c r="O20" s="14">
         <v>0.8427</v>
       </c>
-      <c r="P20" s="19">
+      <c r="P20" s="14">
         <v>0.95950000000000002</v>
       </c>
-      <c r="Q20" s="19">
+      <c r="Q20" s="14">
         <v>4.0500000000000001E-2</v>
       </c>
-      <c r="R20" s="19">
+      <c r="R20" s="14">
         <v>0.1573</v>
       </c>
     </row>
     <row r="21" spans="3:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="J21" s="20" t="s">
+      <c r="J21" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="K21" s="19">
+      <c r="K21" s="14">
         <v>0.91979999999999995</v>
       </c>
-      <c r="L21" s="19">
+      <c r="L21" s="14">
         <v>2.7360000000000002E-3</v>
       </c>
-      <c r="M21" s="19">
+      <c r="M21" s="14">
         <v>1.8100000000000002E-2</v>
       </c>
-      <c r="N21" s="19">
+      <c r="N21" s="14">
         <v>0.15495</v>
       </c>
-      <c r="O21" s="19">
+      <c r="O21" s="14">
         <v>0.86229999999999996</v>
       </c>
-      <c r="P21" s="19">
+      <c r="P21" s="14">
         <v>0.9587</v>
       </c>
-      <c r="Q21" s="19">
+      <c r="Q21" s="14">
         <v>4.1200000000000001E-2</v>
       </c>
-      <c r="R21" s="19">
+      <c r="R21" s="14">
         <v>0.1376</v>
       </c>
     </row>
     <row r="22" spans="3:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F22" s="9" t="s">
+      <c r="F22" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="J22" s="20" t="s">
+      <c r="J22" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="K22" s="19">
+      <c r="K22" s="14">
         <v>0.96640000000000004</v>
       </c>
-      <c r="L22" s="19">
+      <c r="L22" s="14">
         <v>1.65E-3</v>
       </c>
-      <c r="M22" s="19">
+      <c r="M22" s="14">
         <v>1.6580000000000001E-2</v>
       </c>
-      <c r="N22" s="19">
+      <c r="N22" s="14">
         <v>0.1021</v>
       </c>
-      <c r="O22" s="19">
+      <c r="O22" s="14">
         <v>0.92290000000000005</v>
       </c>
-      <c r="P22" s="19">
+      <c r="P22" s="14">
         <v>0.98050000000000004</v>
       </c>
-      <c r="Q22" s="19">
+      <c r="Q22" s="14">
         <v>1.95E-2</v>
       </c>
-      <c r="R22" s="19">
+      <c r="R22" s="14">
         <v>7.6999999999999999E-2</v>
       </c>
     </row>
     <row r="23" spans="3:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="F23" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="J23" s="20" t="s">
+      <c r="J23" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="K23" s="19">
+      <c r="K23" s="14">
         <v>0.9556</v>
       </c>
-      <c r="L23" s="19">
+      <c r="L23" s="14">
         <v>1.7819999999999999E-3</v>
       </c>
-      <c r="M23" s="19">
+      <c r="M23" s="14">
         <v>1.4800000000000001E-2</v>
       </c>
-      <c r="N23" s="19">
+      <c r="N23" s="14">
         <v>0.123</v>
       </c>
-      <c r="O23" s="19">
+      <c r="O23" s="14">
         <v>0.91310000000000002</v>
       </c>
-      <c r="P23" s="19">
+      <c r="P23" s="14">
         <v>0.97529999999999994</v>
       </c>
-      <c r="Q23" s="19">
+      <c r="Q23" s="14">
         <v>2.47E-2</v>
       </c>
-      <c r="R23" s="19">
+      <c r="R23" s="14">
         <v>8.6889999999999995E-2</v>
       </c>
     </row>
     <row r="24" spans="3:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="E24" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="F24" s="9" t="s">
+      <c r="F24" s="7" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="25" spans="3:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="F25" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="J25" s="21"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="22"/>
-      <c r="M25" s="22"/>
-      <c r="N25" s="22"/>
-      <c r="O25" s="22"/>
-      <c r="P25" s="22"/>
-      <c r="Q25" s="22"/>
-      <c r="R25" s="22"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17"/>
+      <c r="R25" s="17"/>
     </row>
     <row r="26" spans="3:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="E26" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="F26" s="9" t="s">
+      <c r="F26" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="4"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
     </row>
     <row r="27" spans="3:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E27" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F27" s="9" t="s">
+      <c r="F27" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="J27" s="21"/>
-      <c r="K27" s="22"/>
-      <c r="L27" s="22"/>
-      <c r="M27" s="22"/>
-      <c r="N27" s="22"/>
-      <c r="O27" s="22"/>
-      <c r="P27" s="22"/>
-      <c r="Q27" s="22"/>
-      <c r="R27" s="22"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="17"/>
+      <c r="R27" s="17"/>
     </row>
     <row r="28" spans="3:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="D28" s="18" t="s">
+      <c r="D28" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="E28" s="18" t="s">
+      <c r="E28" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="F28" s="18" t="s">
+      <c r="F28" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="J28" s="12"/>
+      <c r="J28" s="10"/>
     </row>
     <row r="29" spans="3:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C29" s="18" t="s">
+      <c r="C29" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="D29" s="18" t="s">
+      <c r="D29" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="E29" s="18" t="s">
+      <c r="E29" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="F29" s="18" t="s">
+      <c r="F29" s="13" t="s">
         <v>120</v>
       </c>
     </row>
@@ -1674,6 +3916,565 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D3:H38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Z11" sqref="Z11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="4:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D3" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="H3" s="9"/>
+    </row>
+    <row r="4" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D4" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" s="8">
+        <v>0.25939072054060802</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="H4" s="8">
+        <v>0.25554796527097401</v>
+      </c>
+    </row>
+    <row r="5" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D5" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0.130622840267926</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="H5" s="8">
+        <v>8.2405772025782295E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D6" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="E6" s="8">
+        <v>0.107055319938611</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="H6" s="8">
+        <v>6.5550015265496198E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D7" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="E7" s="8">
+        <v>4.5657781754163997E-2</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="H7" s="8">
+        <v>5.0860476788209E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D8" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="E8" s="8">
+        <v>4.0679502412865901E-2</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="H8" s="8">
+        <v>4.4063083066198099E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D9" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="E9" s="8">
+        <v>3.5811990542492303E-2</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="H9" s="8">
+        <v>3.62520362108502E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D10" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="E10" s="8">
+        <v>3.0048173504884802E-2</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="H10" s="8">
+        <v>3.5756767654865899E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D11" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="E11" s="8">
+        <v>3.0034020051686199E-2</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="H11" s="8">
+        <v>3.3764641649320401E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D12" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="E12" s="8">
+        <v>2.6862380884943901E-2</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="H12" s="8">
+        <v>3.3176858287543999E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D13" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="E13" s="8">
+        <v>2.5738809685280299E-2</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="H13" s="8">
+        <v>2.7344953106372302E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D14" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="E14" s="8">
+        <v>2.3383702253420999E-2</v>
+      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="H14" s="8">
+        <v>2.6317366384022899E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D15" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="E15" s="8">
+        <v>2.2933907970845699E-2</v>
+      </c>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="H15" s="8">
+        <v>2.58350331263522E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D16" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="E16" s="8">
+        <v>2.2298460962854299E-2</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="H16" s="8">
+        <v>1.9961798085714199E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D17" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="E17" s="8">
+        <v>2.0995593463716301E-2</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="H17" s="8">
+        <v>1.93241014977703E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D18" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="E18" s="8">
+        <v>1.6216696140536099E-2</v>
+      </c>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="H18" s="8">
+        <v>1.8666603698988E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D19" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="E19" s="8">
+        <v>1.40277862664074E-2</v>
+      </c>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="H19" s="8">
+        <v>1.7366026247429001E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D20" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="E20" s="8">
+        <v>1.3886242625483099E-2</v>
+      </c>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="H20" s="8">
+        <v>1.73273187578298E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D21" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="E21" s="8">
+        <v>1.34009988745985E-2</v>
+      </c>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="H21" s="8">
+        <v>1.72299595448836E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D22" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="E22" s="8">
+        <v>1.2803188535949601E-2</v>
+      </c>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="H22" s="8">
+        <v>1.6625835978022599E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D23" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="E23" s="8">
+        <v>1.26520282638051E-2</v>
+      </c>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="H23" s="8">
+        <v>1.65915336406855E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D24" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="E24" s="8">
+        <v>1.1704273498065401E-2</v>
+      </c>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="H24" s="8">
+        <v>1.54223770323301E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D25" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="E25" s="8">
+        <v>1.1134064091048199E-2</v>
+      </c>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="H25" s="8">
+        <v>1.48209011547452E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D26" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="E26" s="8">
+        <v>1.02074501982661E-2</v>
+      </c>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="H26" s="8">
+        <v>1.4531776753710699E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D27" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="E27" s="8">
+        <v>8.7485785934044696E-3</v>
+      </c>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="H27" s="8">
+        <v>1.3940119555324501E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D28" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="E28" s="8">
+        <v>8.5079789905591202E-3</v>
+      </c>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="H28" s="8">
+        <v>1.15081020160623E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D29" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="E29" s="8">
+        <v>7.8721328362123203E-3</v>
+      </c>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="H29" s="8">
+        <v>1.06245656541556E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D30" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="E30" s="8">
+        <v>7.8622856187705002E-3</v>
+      </c>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="H30" s="8">
+        <v>1.0213767342805199E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D31" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="E31" s="8">
+        <v>7.1832026324675103E-3</v>
+      </c>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="H31" s="8">
+        <v>9.3798036486073197E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D32" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="E32" s="8">
+        <v>5.4825948518893702E-3</v>
+      </c>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="H32" s="8">
+        <v>8.8064275838203396E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D33" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E33" s="8">
+        <v>5.3308012312194E-3</v>
+      </c>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="H33" s="8">
+        <v>7.80353192314036E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D34" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="E34" s="8">
+        <v>5.0009839358514697E-3</v>
+      </c>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="H34" s="8">
+        <v>7.6564548648511898E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D35" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="E35" s="8">
+        <v>3.0313942754427599E-3</v>
+      </c>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="H35" s="8">
+        <v>7.21062245606819E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D36" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="E36" s="8">
+        <v>2.9214508520093501E-3</v>
+      </c>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="H36" s="8">
+        <v>5.1297641458099303E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D37" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="E37" s="8">
+        <v>3.1283001936043703E-4</v>
+      </c>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="H37" s="8">
+        <v>2.14219836295875E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D38" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="E38" s="8">
+        <v>1.9983343435075199E-4</v>
+      </c>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="H38" s="8">
+        <v>8.4144121829763296E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I46"/>
   <sheetViews>
@@ -1691,17 +4492,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -3024,7 +5825,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I26"/>
   <sheetViews>
@@ -3041,17 +5842,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -3794,7 +6595,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I24"/>
   <sheetViews>
@@ -3812,17 +6613,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -4507,7 +7308,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I25"/>
   <sheetViews>
@@ -4525,17 +7326,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -5249,7 +8050,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
@@ -5264,17 +8065,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -5709,7 +8510,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I14"/>
   <sheetViews>
@@ -5724,17 +8525,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">

--- a/analysis/analyze.xlsx
+++ b/analysis/analyze.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" tabRatio="743" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" tabRatio="743" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Data and Features" sheetId="11" r:id="rId1"/>
@@ -858,6 +858,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -873,9 +876,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -885,8 +885,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5478,7 +5478,7 @@
   <dimension ref="C4:R29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5501,18 +5501,18 @@
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="J5" s="22" t="s">
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="J5" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
       <c r="O5" s="7" t="s">
         <v>5</v>
       </c>
@@ -5565,7 +5565,7 @@
       <c r="F7" s="8">
         <v>20504</v>
       </c>
-      <c r="J7" s="23" t="s">
+      <c r="J7" s="24" t="s">
         <v>53</v>
       </c>
       <c r="K7" s="7" t="s">
@@ -5597,7 +5597,7 @@
       <c r="F8" s="8">
         <v>12525</v>
       </c>
-      <c r="J8" s="23"/>
+      <c r="J8" s="24"/>
       <c r="K8" s="7" t="s">
         <v>155</v>
       </c>
@@ -5615,7 +5615,7 @@
       </c>
     </row>
     <row r="9" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="J9" s="23"/>
+      <c r="J9" s="24"/>
       <c r="K9" s="7" t="s">
         <v>156</v>
       </c>
@@ -5627,7 +5627,7 @@
       </c>
     </row>
     <row r="10" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="J10" s="23"/>
+      <c r="J10" s="24"/>
       <c r="K10" s="7" t="s">
         <v>157</v>
       </c>
@@ -5639,13 +5639,13 @@
       </c>
     </row>
     <row r="11" spans="3:16" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="J11" s="23" t="s">
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="J11" s="24" t="s">
         <v>54</v>
       </c>
       <c r="K11" s="7" t="s">
@@ -5671,7 +5671,7 @@
       <c r="F12" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="J12" s="23"/>
+      <c r="J12" s="24"/>
       <c r="K12" s="7" t="s">
         <v>155</v>
       </c>
@@ -5695,7 +5695,7 @@
       <c r="F13" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="J13" s="23"/>
+      <c r="J13" s="24"/>
       <c r="K13" s="7" t="s">
         <v>156</v>
       </c>
@@ -5719,7 +5719,7 @@
       <c r="F14" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="J14" s="23"/>
+      <c r="J14" s="24"/>
       <c r="K14" s="17" t="s">
         <v>157</v>
       </c>
@@ -5785,17 +5785,17 @@
       <c r="F18" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="J18" s="19" t="s">
+      <c r="J18" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20"/>
-      <c r="N18" s="20"/>
-      <c r="O18" s="20"/>
-      <c r="P18" s="20"/>
-      <c r="Q18" s="20"/>
-      <c r="R18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="21"/>
+      <c r="R18" s="22"/>
     </row>
     <row r="19" spans="3:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="7" t="s">
@@ -6132,8 +6132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6181,132 +6181,132 @@
       <c r="I2" s="27"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="28">
+      <c r="B3" s="19">
         <v>0.25939072054060802</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="D3" s="28">
+      <c r="D3" s="19">
         <v>0.25554796527097401</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="G3" s="28">
+      <c r="G3" s="19">
         <v>0.26682262522455202</v>
       </c>
-      <c r="H3" s="28" t="s">
+      <c r="H3" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="I3" s="28">
+      <c r="I3" s="19">
         <v>0.40692032010875401</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="B4" s="28">
+      <c r="B4" s="19">
         <v>0.130622840267926</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="D4" s="28">
+      <c r="D4" s="19">
         <v>8.2405772025782295E-2</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="F4" s="19" t="s">
         <v>200</v>
       </c>
-      <c r="G4" s="28">
+      <c r="G4" s="19">
         <v>0.17367401913633199</v>
       </c>
-      <c r="H4" s="28" t="s">
+      <c r="H4" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="I4" s="28">
+      <c r="I4" s="19">
         <v>0.126939593088437</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="B5" s="28">
+      <c r="B5" s="19">
         <v>0.107055319938611</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="D5" s="28">
+      <c r="D5" s="19">
         <v>6.5550015265496198E-2</v>
       </c>
-      <c r="F5" s="28" t="s">
+      <c r="F5" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="G5" s="28">
+      <c r="G5" s="19">
         <v>7.4287490626459701E-2</v>
       </c>
-      <c r="H5" s="28" t="s">
+      <c r="H5" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="I5" s="28">
+      <c r="I5" s="19">
         <v>8.13216176039121E-2</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="B6" s="28">
+      <c r="B6" s="19">
         <v>4.5657781754163997E-2</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="D6" s="28">
+      <c r="D6" s="19">
         <v>5.0860476788209E-2</v>
       </c>
-      <c r="F6" s="28" t="s">
+      <c r="F6" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="G6" s="28">
+      <c r="G6" s="19">
         <v>5.2949181408222398E-2</v>
       </c>
-      <c r="H6" s="28" t="s">
+      <c r="H6" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="I6" s="28">
+      <c r="I6" s="19">
         <v>4.4342965903614903E-2</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="B7" s="28">
+      <c r="B7" s="19">
         <v>4.0679502412865901E-2</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="D7" s="28">
+      <c r="D7" s="19">
         <v>4.4063083066198099E-2</v>
       </c>
-      <c r="F7" s="28" t="s">
+      <c r="F7" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="G7" s="28">
+      <c r="G7" s="19">
         <v>3.3113016476378099E-2</v>
       </c>
-      <c r="H7" s="28" t="s">
+      <c r="H7" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="I7" s="28">
+      <c r="I7" s="19">
         <v>3.4744269015351298E-2</v>
       </c>
     </row>
@@ -7111,7 +7111,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A45" activeCellId="21" sqref="A13:XFD13 A15:XFD15 A17:XFD17 A19:XFD19 A21:XFD21 A3:XFD3 A5:XFD5 A7:XFD7 A9:XFD9 A11:XFD11 A23:XFD23 A25:XFD25 A27:XFD27 A29:XFD29 A31:XFD31 A33:XFD33 A35:XFD35 A37:XFD37 A39:XFD39 A41:XFD41 A43:XFD43 A45:XFD45"/>
+      <selection pane="bottomLeft" activeCell="L41" sqref="L41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7123,17 +7123,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -8462,7 +8462,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A24" activeCellId="10" sqref="A4:XFD4 A6:XFD6 A8:XFD8 A10:XFD10 A12:XFD12 A14:XFD14 A16:XFD16 A18:XFD18 A20:XFD20 A22:XFD22 A24:XFD24"/>
+      <selection pane="bottomLeft" activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8473,17 +8473,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -9244,17 +9244,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -9957,17 +9957,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -10696,17 +10696,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -11145,7 +11145,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
@@ -11156,17 +11156,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">

--- a/analysis/analyze.xlsx
+++ b/analysis/analyze.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cwang224\Desktop\Knee-Loading-Analysis\analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\CityU\dissertation\Knee-Loading-Analysis\analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" tabRatio="743" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" tabRatio="743"/>
   </bookViews>
   <sheets>
     <sheet name="Data and Features" sheetId="11" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="IoT random forest-L" sheetId="8" r:id="rId7"/>
     <sheet name="IoT random forest-R" sheetId="9" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="212">
   <si>
     <t>subject</t>
   </si>
@@ -658,17 +658,29 @@
   </si>
   <si>
     <t>Left foot coefficient</t>
+  </si>
+  <si>
+    <t>KAM&gt;= Threshold</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>KAM&lt; Threshold</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Threshold = 80% * max KAM</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -724,6 +736,13 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -804,7 +823,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -861,6 +880,9 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -888,9 +910,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -906,9 +931,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -979,7 +1004,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1230,7 +1255,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-44F8-4CD9-8DB8-3D2158A69BFD}"/>
             </c:ext>
@@ -1246,11 +1271,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="512040047"/>
-        <c:axId val="512039215"/>
+        <c:axId val="372894224"/>
+        <c:axId val="372891480"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="512040047"/>
+        <c:axId val="372894224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1290,10 +1315,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="512039215"/>
+        <c:crossAx val="372891480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1301,7 +1326,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="512039215"/>
+        <c:axId val="372891480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1349,10 +1374,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="512040047"/>
+        <c:crossAx val="372894224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1390,7 +1415,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1402,9 +1427,9 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1473,7 +1498,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1724,7 +1749,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-3035-43F5-B411-6E2A74F7E72E}"/>
             </c:ext>
@@ -1740,11 +1765,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="512707215"/>
-        <c:axId val="512707631"/>
+        <c:axId val="372896968"/>
+        <c:axId val="372897360"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="512707215"/>
+        <c:axId val="372896968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1784,10 +1809,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="512707631"/>
+        <c:crossAx val="372897360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1795,7 +1820,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="512707631"/>
+        <c:axId val="372897360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1843,10 +1868,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="512707215"/>
+        <c:crossAx val="372896968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1884,7 +1909,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1896,9 +1921,9 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1961,7 +1986,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2212,7 +2237,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-BBF1-4EA2-B3C2-57D14E42AADA}"/>
             </c:ext>
@@ -2228,11 +2253,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="579183055"/>
-        <c:axId val="500077647"/>
+        <c:axId val="372892656"/>
+        <c:axId val="408507920"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="579183055"/>
+        <c:axId val="372892656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2272,10 +2297,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="500077647"/>
+        <c:crossAx val="408507920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2283,7 +2308,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="500077647"/>
+        <c:axId val="408507920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2331,10 +2356,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="579183055"/>
+        <c:crossAx val="372892656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2372,7 +2397,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2384,9 +2409,9 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2449,7 +2474,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2700,7 +2725,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-581B-43F3-96A0-5F683197D995}"/>
             </c:ext>
@@ -2716,11 +2741,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="684385599"/>
-        <c:axId val="684389759"/>
+        <c:axId val="408509488"/>
+        <c:axId val="408504784"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="684385599"/>
+        <c:axId val="408509488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2760,10 +2785,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="684389759"/>
+        <c:crossAx val="408504784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2771,7 +2796,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="684389759"/>
+        <c:axId val="408504784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2819,10 +2844,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="684385599"/>
+        <c:crossAx val="408509488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2860,7 +2885,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5475,52 +5500,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:R29"/>
+  <dimension ref="C4:S29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T18" sqref="T18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.28515625" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" customWidth="1"/>
+    <col min="2" max="2" width="9.25" customWidth="1"/>
+    <col min="3" max="3" width="10.58203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.58203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.4140625" customWidth="1"/>
     <col min="6" max="6" width="27" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" customWidth="1"/>
-    <col min="10" max="10" width="25.5703125" customWidth="1"/>
-    <col min="11" max="11" width="24.5703125" customWidth="1"/>
+    <col min="9" max="9" width="9.1640625" customWidth="1"/>
+    <col min="10" max="10" width="25.58203125" customWidth="1"/>
+    <col min="11" max="11" width="24.58203125" customWidth="1"/>
     <col min="12" max="12" width="14" customWidth="1"/>
-    <col min="13" max="13" width="15.5703125" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" customWidth="1"/>
-    <col min="16" max="16" width="16.85546875" customWidth="1"/>
+    <col min="13" max="13" width="15.58203125" customWidth="1"/>
+    <col min="14" max="14" width="11.4140625" customWidth="1"/>
+    <col min="16" max="16" width="16.83203125" customWidth="1"/>
+    <col min="17" max="17" width="9" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:16" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:19" ht="20" x14ac:dyDescent="0.3">
       <c r="J4" s="4"/>
-    </row>
-    <row r="5" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="23" t="s">
+      <c r="R4" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="S4" s="30"/>
+    </row>
+    <row r="5" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="J5" s="23" t="s">
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="J5" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="O5" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="6" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="R5" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="S5" s="20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="3:19" ht="15.5" x14ac:dyDescent="0.3">
       <c r="C6" s="5" t="s">
         <v>52</v>
       </c>
@@ -5545,14 +5577,14 @@
       <c r="M6" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="O6" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="7" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R6" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="S6" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="3:19" ht="15.5" x14ac:dyDescent="0.3">
       <c r="C7" s="7" t="s">
         <v>53</v>
       </c>
@@ -5565,7 +5597,7 @@
       <c r="F7" s="8">
         <v>20504</v>
       </c>
-      <c r="J7" s="24" t="s">
+      <c r="J7" s="25" t="s">
         <v>53</v>
       </c>
       <c r="K7" s="7" t="s">
@@ -5577,14 +5609,8 @@
       <c r="M7" s="8">
         <v>7.6959999999999997E-3</v>
       </c>
-      <c r="O7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="8" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="3:19" ht="15.5" x14ac:dyDescent="0.3">
       <c r="C8" s="7" t="s">
         <v>54</v>
       </c>
@@ -5597,7 +5623,7 @@
       <c r="F8" s="8">
         <v>12525</v>
       </c>
-      <c r="J8" s="24"/>
+      <c r="J8" s="25"/>
       <c r="K8" s="7" t="s">
         <v>155</v>
       </c>
@@ -5607,15 +5633,9 @@
       <c r="M8" s="8">
         <v>8.6250000000000007E-3</v>
       </c>
-      <c r="O8" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="9" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="J9" s="24"/>
+    </row>
+    <row r="9" spans="3:19" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="J9" s="25"/>
       <c r="K9" s="7" t="s">
         <v>156</v>
       </c>
@@ -5626,8 +5646,8 @@
         <v>2.8509999999999998E-3</v>
       </c>
     </row>
-    <row r="10" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="J10" s="24"/>
+    <row r="10" spans="3:19" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="J10" s="25"/>
       <c r="K10" s="7" t="s">
         <v>157</v>
       </c>
@@ -5637,15 +5657,21 @@
       <c r="M10" s="8">
         <v>2.9559999999999999E-3</v>
       </c>
-    </row>
-    <row r="11" spans="3:16" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="C11" s="23" t="s">
+      <c r="O10" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="11" spans="3:19" ht="20" x14ac:dyDescent="0.3">
+      <c r="C11" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="J11" s="24" t="s">
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="J11" s="25" t="s">
         <v>54</v>
       </c>
       <c r="K11" s="7" t="s">
@@ -5657,8 +5683,14 @@
       <c r="M11" s="8">
         <v>7.6160000000000004E-3</v>
       </c>
-    </row>
-    <row r="12" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O11" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="12" spans="3:19" ht="15.5" x14ac:dyDescent="0.3">
       <c r="C12" s="5" t="s">
         <v>148</v>
       </c>
@@ -5671,7 +5703,7 @@
       <c r="F12" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="J12" s="24"/>
+      <c r="J12" s="25"/>
       <c r="K12" s="7" t="s">
         <v>155</v>
       </c>
@@ -5681,8 +5713,14 @@
       <c r="M12" s="8">
         <v>9.2530000000000008E-3</v>
       </c>
-    </row>
-    <row r="13" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O12" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="13" spans="3:19" ht="15.5" x14ac:dyDescent="0.3">
       <c r="C13" s="7" t="s">
         <v>84</v>
       </c>
@@ -5695,7 +5733,7 @@
       <c r="F13" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="J13" s="24"/>
+      <c r="J13" s="25"/>
       <c r="K13" s="7" t="s">
         <v>156</v>
       </c>
@@ -5705,8 +5743,14 @@
       <c r="M13" s="8">
         <v>2.6280000000000001E-3</v>
       </c>
-    </row>
-    <row r="14" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O13" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="14" spans="3:19" ht="15.5" x14ac:dyDescent="0.3">
       <c r="C14" s="7" t="s">
         <v>88</v>
       </c>
@@ -5719,7 +5763,7 @@
       <c r="F14" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="J14" s="24"/>
+      <c r="J14" s="25"/>
       <c r="K14" s="17" t="s">
         <v>157</v>
       </c>
@@ -5730,7 +5774,7 @@
         <v>2.624E-3</v>
       </c>
     </row>
-    <row r="15" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:19" ht="15.5" x14ac:dyDescent="0.3">
       <c r="C15" s="7" t="s">
         <v>92</v>
       </c>
@@ -5744,7 +5788,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:19" ht="15.5" x14ac:dyDescent="0.3">
       <c r="C16" s="7" t="s">
         <v>96</v>
       </c>
@@ -5758,7 +5802,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="17" spans="3:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:18" ht="15.5" x14ac:dyDescent="0.3">
       <c r="C17" s="7" t="s">
         <v>100</v>
       </c>
@@ -5772,7 +5816,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="3:18" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:18" ht="20" x14ac:dyDescent="0.3">
       <c r="C18" s="7" t="s">
         <v>104</v>
       </c>
@@ -5785,19 +5829,19 @@
       <c r="F18" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="J18" s="20" t="s">
+      <c r="J18" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="21"/>
-      <c r="Q18" s="21"/>
-      <c r="R18" s="22"/>
-    </row>
-    <row r="19" spans="3:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="23"/>
+    </row>
+    <row r="19" spans="3:18" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C19" s="7" t="s">
         <v>108</v>
       </c>
@@ -5838,7 +5882,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="3:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:18" ht="15.5" x14ac:dyDescent="0.3">
       <c r="C20" s="7" t="s">
         <v>112</v>
       </c>
@@ -5855,31 +5899,31 @@
         <v>161</v>
       </c>
       <c r="K20" s="13">
-        <v>0.90939999999999999</v>
+        <v>0.95889999999999997</v>
       </c>
       <c r="L20" s="13">
-        <v>2.8E-3</v>
+        <v>1.8760000000000001E-3</v>
       </c>
       <c r="M20" s="13">
-        <v>1.6799999999999999E-2</v>
+        <v>1.6840000000000001E-2</v>
       </c>
       <c r="N20" s="13">
-        <v>0.17299999999999999</v>
+        <v>0.1201</v>
       </c>
       <c r="O20" s="13">
-        <v>0.8427</v>
+        <v>0.72350000000000003</v>
       </c>
       <c r="P20" s="13">
-        <v>0.95950000000000002</v>
+        <v>0.98880000000000001</v>
       </c>
       <c r="Q20" s="13">
-        <v>4.0500000000000001E-2</v>
+        <v>1.1129999999999999E-2</v>
       </c>
       <c r="R20" s="13">
-        <v>0.1573</v>
-      </c>
-    </row>
-    <row r="21" spans="3:18" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0.27650000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" ht="15.5" x14ac:dyDescent="0.3">
       <c r="C21" s="7" t="s">
         <v>115</v>
       </c>
@@ -5896,31 +5940,31 @@
         <v>162</v>
       </c>
       <c r="K21" s="13">
-        <v>0.91979999999999995</v>
+        <v>0.96340000000000003</v>
       </c>
       <c r="L21" s="13">
-        <v>2.7360000000000002E-3</v>
+        <v>1.8309999999999999E-3</v>
       </c>
       <c r="M21" s="13">
-        <v>1.8100000000000002E-2</v>
+        <v>1.8089999999999998E-2</v>
       </c>
       <c r="N21" s="13">
-        <v>0.15495</v>
+        <v>0.1037</v>
       </c>
       <c r="O21" s="13">
-        <v>0.86229999999999996</v>
+        <v>0.75239999999999996</v>
       </c>
       <c r="P21" s="13">
-        <v>0.9587</v>
+        <v>0.98499999999999999</v>
       </c>
       <c r="Q21" s="13">
-        <v>4.1200000000000001E-2</v>
+        <v>1.4970000000000001E-2</v>
       </c>
       <c r="R21" s="13">
-        <v>0.1376</v>
-      </c>
-    </row>
-    <row r="22" spans="3:18" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0.2475</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" ht="15.5" x14ac:dyDescent="0.3">
       <c r="C22" s="7" t="s">
         <v>118</v>
       </c>
@@ -5949,19 +5993,19 @@
         <v>0.1021</v>
       </c>
       <c r="O22" s="13">
-        <v>0.92290000000000005</v>
+        <v>0.81830000000000003</v>
       </c>
       <c r="P22" s="13">
-        <v>0.98050000000000004</v>
+        <v>0.99399999999999999</v>
       </c>
       <c r="Q22" s="13">
-        <v>1.95E-2</v>
+        <v>5.9579999999999998E-3</v>
       </c>
       <c r="R22" s="13">
-        <v>7.6999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="3:18" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0.18160000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" ht="15.5" x14ac:dyDescent="0.3">
       <c r="C23" s="7" t="s">
         <v>121</v>
       </c>
@@ -5981,7 +6025,7 @@
         <v>0.9556</v>
       </c>
       <c r="L23" s="13">
-        <v>1.7819999999999999E-3</v>
+        <v>1.781E-3</v>
       </c>
       <c r="M23" s="13">
         <v>1.4800000000000001E-2</v>
@@ -5990,19 +6034,19 @@
         <v>0.123</v>
       </c>
       <c r="O23" s="13">
-        <v>0.91310000000000002</v>
+        <v>0.7429</v>
       </c>
       <c r="P23" s="13">
-        <v>0.97529999999999994</v>
+        <v>0.99360000000000004</v>
       </c>
       <c r="Q23" s="13">
-        <v>2.47E-2</v>
+        <v>6.3635999999999996E-3</v>
       </c>
       <c r="R23" s="13">
-        <v>8.6889999999999995E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="3:18" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0.25700000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" ht="15.5" x14ac:dyDescent="0.3">
       <c r="C24" s="7" t="s">
         <v>125</v>
       </c>
@@ -6016,7 +6060,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="25" spans="3:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:18" ht="15.5" x14ac:dyDescent="0.3">
       <c r="C25" s="7" t="s">
         <v>129</v>
       </c>
@@ -6039,7 +6083,7 @@
       <c r="Q25" s="16"/>
       <c r="R25" s="16"/>
     </row>
-    <row r="26" spans="3:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:18" ht="15.5" x14ac:dyDescent="0.3">
       <c r="C26" s="7" t="s">
         <v>133</v>
       </c>
@@ -6062,7 +6106,7 @@
       <c r="Q26" s="3"/>
       <c r="R26" s="3"/>
     </row>
-    <row r="27" spans="3:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:18" ht="15.5" x14ac:dyDescent="0.3">
       <c r="C27" s="7" t="s">
         <v>137</v>
       </c>
@@ -6085,7 +6129,7 @@
       <c r="Q27" s="16"/>
       <c r="R27" s="16"/>
     </row>
-    <row r="28" spans="3:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:18" ht="15.5" x14ac:dyDescent="0.3">
       <c r="C28" s="12" t="s">
         <v>114</v>
       </c>
@@ -6100,7 +6144,7 @@
       </c>
       <c r="J28" s="9"/>
     </row>
-    <row r="29" spans="3:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:18" ht="15.5" x14ac:dyDescent="0.3">
       <c r="C29" s="12" t="s">
         <v>117</v>
       </c>
@@ -6115,7 +6159,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="R4:S4"/>
     <mergeCell ref="J18:R18"/>
     <mergeCell ref="C11:F11"/>
     <mergeCell ref="C5:F5"/>
@@ -6123,6 +6168,7 @@
     <mergeCell ref="J7:J10"/>
     <mergeCell ref="J11:J14"/>
   </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -6136,51 +6182,51 @@
       <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.85546875" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.58203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.83203125" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
         <v>206</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="27"/>
-      <c r="F1" s="25" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="28"/>
+      <c r="F1" s="26" t="s">
         <v>205</v>
       </c>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="27"/>
-    </row>
-    <row r="2" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="28"/>
+    </row>
+    <row r="2" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="26" t="s">
         <v>207</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="25" t="s">
+      <c r="B2" s="28"/>
+      <c r="C2" s="26" t="s">
         <v>208</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="F2" s="25" t="s">
+      <c r="D2" s="28"/>
+      <c r="F2" s="26" t="s">
         <v>207</v>
       </c>
-      <c r="G2" s="27"/>
-      <c r="H2" s="25" t="s">
+      <c r="G2" s="28"/>
+      <c r="H2" s="26" t="s">
         <v>208</v>
       </c>
-      <c r="I2" s="27"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I2" s="28"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>84</v>
       </c>
@@ -6206,7 +6252,7 @@
         <v>0.40692032010875401</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
         <v>170</v>
       </c>
@@ -6232,7 +6278,7 @@
         <v>0.126939593088437</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
         <v>171</v>
       </c>
@@ -6258,7 +6304,7 @@
         <v>8.13216176039121E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="19" t="s">
         <v>172</v>
       </c>
@@ -6284,7 +6330,7 @@
         <v>4.4342965903614903E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="19" t="s">
         <v>173</v>
       </c>
@@ -6310,7 +6356,7 @@
         <v>3.4744269015351298E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>174</v>
       </c>
@@ -6336,7 +6382,7 @@
         <v>2.34799817126779E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>175</v>
       </c>
@@ -6362,7 +6408,7 @@
         <v>2.2667241145945899E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>176</v>
       </c>
@@ -6388,7 +6434,7 @@
         <v>2.20792033744707E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>177</v>
       </c>
@@ -6414,7 +6460,7 @@
         <v>2.0528792629229901E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>178</v>
       </c>
@@ -6440,7 +6486,7 @@
         <v>1.9396940938054899E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>179</v>
       </c>
@@ -6466,7 +6512,7 @@
         <v>1.6991568291172501E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>180</v>
       </c>
@@ -6492,7 +6538,7 @@
         <v>1.3967926913249801E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>181</v>
       </c>
@@ -6518,7 +6564,7 @@
         <v>1.38038454860543E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>182</v>
       </c>
@@ -6544,7 +6590,7 @@
         <v>1.1816016795616601E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>183</v>
       </c>
@@ -6570,7 +6616,7 @@
         <v>1.0801570675881301E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>184</v>
       </c>
@@ -6596,7 +6642,7 @@
         <v>1.0354389815846301E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>185</v>
       </c>
@@ -6622,7 +6668,7 @@
         <v>1.00047249164914E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>186</v>
       </c>
@@ -6648,7 +6694,7 @@
         <v>9.9264162348632196E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>187</v>
       </c>
@@ -6674,7 +6720,7 @@
         <v>9.4960046339698703E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
         <v>188</v>
       </c>
@@ -6700,7 +6746,7 @@
         <v>9.3266299023289298E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
         <v>189</v>
       </c>
@@ -6726,7 +6772,7 @@
         <v>9.2266490796442807E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
         <v>190</v>
       </c>
@@ -6752,7 +6798,7 @@
         <v>8.9326608918488606E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
         <v>191</v>
       </c>
@@ -6778,7 +6824,7 @@
         <v>8.7471398986864093E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
         <v>192</v>
       </c>
@@ -6804,7 +6850,7 @@
         <v>7.6895477508456501E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
         <v>193</v>
       </c>
@@ -6830,7 +6876,7 @@
         <v>7.0549896257730898E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
         <v>194</v>
       </c>
@@ -6856,7 +6902,7 @@
         <v>6.9021809080963602E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
         <v>195</v>
       </c>
@@ -6882,7 +6928,7 @@
         <v>5.7940661612460396E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
         <v>196</v>
       </c>
@@ -6908,7 +6954,7 @@
         <v>5.0820085759190701E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
         <v>197</v>
       </c>
@@ -6934,7 +6980,7 @@
         <v>4.9449359058623896E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
         <v>198</v>
       </c>
@@ -6960,7 +7006,7 @@
         <v>4.6195187840236199E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
         <v>199</v>
       </c>
@@ -6986,7 +7032,7 @@
         <v>3.88573711907914E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
         <v>200</v>
       </c>
@@ -7012,7 +7058,7 @@
         <v>3.6680771412455401E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="8" t="s">
         <v>201</v>
       </c>
@@ -7038,7 +7084,7 @@
         <v>2.0880496911809001E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="8" t="s">
         <v>202</v>
       </c>
@@ -7064,7 +7110,7 @@
         <v>1.9573236528783698E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="8" t="s">
         <v>203</v>
       </c>
@@ -7099,6 +7145,7 @@
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
   </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -7109,33 +7156,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L41" sqref="L41"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B46" sqref="B46:I46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="1" max="2" width="9.1640625" style="1"/>
     <col min="3" max="6" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="1"/>
+    <col min="9" max="9" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -7164,7 +7211,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -7193,7 +7240,7 @@
         <v>0.24479999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -7222,7 +7269,7 @@
         <v>0.2727</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -7251,7 +7298,7 @@
         <v>0.1232</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -7280,7 +7327,7 @@
         <v>0.12839999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -7309,7 +7356,7 @@
         <v>9.8799999999999999E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -7338,7 +7385,7 @@
         <v>0.17910000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
@@ -7367,7 +7414,7 @@
         <v>9.4000000000000004E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
@@ -7396,7 +7443,7 @@
         <v>9.7100000000000006E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
@@ -7425,7 +7472,7 @@
         <v>0.14099999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
@@ -7454,7 +7501,7 @@
         <v>0.2422</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
@@ -7483,7 +7530,7 @@
         <v>4.1099999999999998E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
@@ -7512,7 +7559,7 @@
         <v>6.1400000000000003E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
@@ -7541,7 +7588,7 @@
         <v>0.1333</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
@@ -7570,7 +7617,7 @@
         <v>7.9600000000000004E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
@@ -7599,7 +7646,7 @@
         <v>0.77359999999999995</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
@@ -7628,7 +7675,7 @@
         <v>0.25480000000000003</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
@@ -7657,7 +7704,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>27</v>
       </c>
@@ -7686,7 +7733,7 @@
         <v>0.28570000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>28</v>
       </c>
@@ -7715,7 +7762,7 @@
         <v>0.43020000000000003</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>29</v>
       </c>
@@ -7744,7 +7791,7 @@
         <v>0.54810000000000003</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>30</v>
       </c>
@@ -7773,7 +7820,7 @@
         <v>5.4100000000000002E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
@@ -7802,7 +7849,7 @@
         <v>0.1094</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="18" t="s">
         <v>32</v>
       </c>
@@ -7831,7 +7878,7 @@
         <v>0.1236</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="18" t="s">
         <v>33</v>
       </c>
@@ -7860,7 +7907,7 @@
         <v>0.56410000000000005</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="18" t="s">
         <v>34</v>
       </c>
@@ -7889,7 +7936,7 @@
         <v>0.6875</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="18" t="s">
         <v>35</v>
       </c>
@@ -7918,7 +7965,7 @@
         <v>0.57689999999999997</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="18" t="s">
         <v>36</v>
       </c>
@@ -7947,7 +7994,7 @@
         <v>0.1724</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="18" t="s">
         <v>37</v>
       </c>
@@ -7976,7 +8023,7 @@
         <v>0.18909999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="18" t="s">
         <v>38</v>
       </c>
@@ -8005,7 +8052,7 @@
         <v>0.36630000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="18" t="s">
         <v>39</v>
       </c>
@@ -8034,7 +8081,7 @@
         <v>0.4667</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="18" t="s">
         <v>40</v>
       </c>
@@ -8063,7 +8110,7 @@
         <v>0.24809999999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="18" t="s">
         <v>41</v>
       </c>
@@ -8092,7 +8139,7 @@
         <v>0.50700000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="18" t="s">
         <v>42</v>
       </c>
@@ -8121,7 +8168,7 @@
         <v>0.29570000000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="18" t="s">
         <v>43</v>
       </c>
@@ -8150,7 +8197,7 @@
         <v>0.26669999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="18" t="s">
         <v>44</v>
       </c>
@@ -8179,7 +8226,7 @@
         <v>6.1400000000000003E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="18" t="s">
         <v>45</v>
       </c>
@@ -8208,7 +8255,7 @@
         <v>0.23699999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="18" t="s">
         <v>46</v>
       </c>
@@ -8237,7 +8284,7 @@
         <v>0.44319999999999998</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="18" t="s">
         <v>47</v>
       </c>
@@ -8266,7 +8313,7 @@
         <v>0.43940000000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="18" t="s">
         <v>48</v>
       </c>
@@ -8295,7 +8342,7 @@
         <v>0.32850000000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="18" t="s">
         <v>49</v>
       </c>
@@ -8324,7 +8371,7 @@
         <v>0.106</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="18" t="s">
         <v>50</v>
       </c>
@@ -8353,7 +8400,7 @@
         <v>0.23730000000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="18" t="s">
         <v>51</v>
       </c>
@@ -8382,7 +8429,7 @@
         <v>0.1951</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="18" t="s">
         <v>17</v>
       </c>
@@ -8411,7 +8458,7 @@
         <v>5.79E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>3</v>
       </c>
@@ -8452,6 +8499,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8465,27 +8513,27 @@
       <selection pane="bottomLeft" activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="7.28515625" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="7.25" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -8514,7 +8562,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>55</v>
       </c>
@@ -8543,7 +8591,7 @@
         <v>0.13450000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>56</v>
       </c>
@@ -8572,7 +8620,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
         <v>57</v>
       </c>
@@ -8601,7 +8649,7 @@
         <v>3.5700000000000003E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
         <v>58</v>
       </c>
@@ -8630,7 +8678,7 @@
         <v>9.5799999999999996E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
         <v>59</v>
       </c>
@@ -8659,7 +8707,7 @@
         <v>0.10589999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
         <v>60</v>
       </c>
@@ -8688,7 +8736,7 @@
         <v>0.1429</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
         <v>61</v>
       </c>
@@ -8717,7 +8765,7 @@
         <v>0.36459999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
         <v>62</v>
       </c>
@@ -8746,7 +8794,7 @@
         <v>0.63639999999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="18" t="s">
         <v>63</v>
       </c>
@@ -8775,7 +8823,7 @@
         <v>8.6800000000000002E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="18" t="s">
         <v>64</v>
       </c>
@@ -8804,7 +8852,7 @@
         <v>5.2600000000000001E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="18" t="s">
         <v>65</v>
       </c>
@@ -8833,7 +8881,7 @@
         <v>8.5699999999999998E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="18" t="s">
         <v>66</v>
       </c>
@@ -8862,7 +8910,7 @@
         <v>4.9799999999999997E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="18" t="s">
         <v>67</v>
       </c>
@@ -8891,7 +8939,7 @@
         <v>0.33960000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="18" t="s">
         <v>68</v>
       </c>
@@ -8920,7 +8968,7 @@
         <v>0.29339999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="18" t="s">
         <v>69</v>
       </c>
@@ -8949,7 +8997,7 @@
         <v>0.31680000000000003</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="18" t="s">
         <v>70</v>
       </c>
@@ -8978,7 +9026,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="18" t="s">
         <v>71</v>
       </c>
@@ -9007,7 +9055,7 @@
         <v>0.20300000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="18" t="s">
         <v>72</v>
       </c>
@@ -9036,7 +9084,7 @@
         <v>0.43659999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="18" t="s">
         <v>73</v>
       </c>
@@ -9065,7 +9113,7 @@
         <v>0.1903</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="18" t="s">
         <v>74</v>
       </c>
@@ -9094,7 +9142,7 @@
         <v>9.0899999999999995E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="18" t="s">
         <v>75</v>
       </c>
@@ -9123,7 +9171,7 @@
         <v>0.16109999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="18" t="s">
         <v>76</v>
       </c>
@@ -9152,7 +9200,7 @@
         <v>8.8700000000000001E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="18" t="s">
         <v>77</v>
       </c>
@@ -9181,7 +9229,7 @@
         <v>0.1555</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>3</v>
       </c>
@@ -9222,6 +9270,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9231,32 +9280,32 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12:H12"/>
+      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B24" sqref="B24:I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.4140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.75" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="9" width="7" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -9285,7 +9334,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -9314,7 +9363,7 @@
         <v>0.2727</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -9343,7 +9392,7 @@
         <v>0.12839999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -9372,7 +9421,7 @@
         <v>0.17910000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
@@ -9401,7 +9450,7 @@
         <v>9.7100000000000006E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -9430,7 +9479,7 @@
         <v>0.2422</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
@@ -9459,7 +9508,7 @@
         <v>6.1400000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
@@ -9488,7 +9537,7 @@
         <v>7.9600000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>25</v>
       </c>
@@ -9517,7 +9566,7 @@
         <v>0.25480000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>27</v>
       </c>
@@ -9546,7 +9595,7 @@
         <v>0.28570000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>29</v>
       </c>
@@ -9575,7 +9624,7 @@
         <v>0.54810000000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>31</v>
       </c>
@@ -9604,7 +9653,7 @@
         <v>0.1094</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="18" t="s">
         <v>33</v>
       </c>
@@ -9633,7 +9682,7 @@
         <v>0.56410000000000005</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="18" t="s">
         <v>35</v>
       </c>
@@ -9662,7 +9711,7 @@
         <v>0.57689999999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="18" t="s">
         <v>37</v>
       </c>
@@ -9691,7 +9740,7 @@
         <v>0.18909999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="18" t="s">
         <v>39</v>
       </c>
@@ -9720,7 +9769,7 @@
         <v>0.4667</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="18" t="s">
         <v>41</v>
       </c>
@@ -9749,7 +9798,7 @@
         <v>0.50700000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="18" t="s">
         <v>43</v>
       </c>
@@ -9778,7 +9827,7 @@
         <v>0.26669999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="18" t="s">
         <v>45</v>
       </c>
@@ -9807,7 +9856,7 @@
         <v>0.23699999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="18" t="s">
         <v>47</v>
       </c>
@@ -9836,7 +9885,7 @@
         <v>0.43940000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="18" t="s">
         <v>49</v>
       </c>
@@ -9865,7 +9914,7 @@
         <v>0.106</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="18" t="s">
         <v>51</v>
       </c>
@@ -9894,7 +9943,7 @@
         <v>0.1951</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>3</v>
       </c>
@@ -9935,6 +9984,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9944,32 +9994,32 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K30" sqref="K30"/>
+      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B25" sqref="B25:I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.4140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -9998,7 +10048,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -10027,7 +10077,7 @@
         <v>0.24479999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -10056,7 +10106,7 @@
         <v>0.1232</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -10085,7 +10135,7 @@
         <v>9.8799999999999999E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -10114,7 +10164,7 @@
         <v>9.4000000000000004E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
@@ -10143,7 +10193,7 @@
         <v>0.14099999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
@@ -10172,7 +10222,7 @@
         <v>4.1099999999999998E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>22</v>
       </c>
@@ -10201,7 +10251,7 @@
         <v>0.1333</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>24</v>
       </c>
@@ -10230,7 +10280,7 @@
         <v>0.77359999999999995</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>26</v>
       </c>
@@ -10259,7 +10309,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>28</v>
       </c>
@@ -10288,7 +10338,7 @@
         <v>0.43020000000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>30</v>
       </c>
@@ -10317,7 +10367,7 @@
         <v>5.4100000000000002E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="18" t="s">
         <v>32</v>
       </c>
@@ -10346,7 +10396,7 @@
         <v>0.1236</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="18" t="s">
         <v>34</v>
       </c>
@@ -10375,7 +10425,7 @@
         <v>0.6875</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="18" t="s">
         <v>36</v>
       </c>
@@ -10404,7 +10454,7 @@
         <v>0.1724</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="18" t="s">
         <v>38</v>
       </c>
@@ -10433,7 +10483,7 @@
         <v>0.36630000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="18" t="s">
         <v>40</v>
       </c>
@@ -10462,7 +10512,7 @@
         <v>0.24809999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="18" t="s">
         <v>42</v>
       </c>
@@ -10491,7 +10541,7 @@
         <v>0.29570000000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="18" t="s">
         <v>44</v>
       </c>
@@ -10520,7 +10570,7 @@
         <v>6.1400000000000003E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="18" t="s">
         <v>46</v>
       </c>
@@ -10549,7 +10599,7 @@
         <v>0.44319999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="18" t="s">
         <v>48</v>
       </c>
@@ -10578,7 +10628,7 @@
         <v>0.32850000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="18" t="s">
         <v>50</v>
       </c>
@@ -10607,7 +10657,7 @@
         <v>0.23730000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="18" t="s">
         <v>17</v>
       </c>
@@ -10636,7 +10686,7 @@
         <v>5.79E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>3</v>
       </c>
@@ -10677,6 +10727,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10687,28 +10738,28 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I16" sqref="I16"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15:I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -10737,7 +10788,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>55</v>
       </c>
@@ -10766,7 +10817,7 @@
         <v>0.13450000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>57</v>
       </c>
@@ -10795,7 +10846,7 @@
         <v>3.5700000000000003E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
         <v>59</v>
       </c>
@@ -10824,7 +10875,7 @@
         <v>0.10589999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
         <v>61</v>
       </c>
@@ -10853,7 +10904,7 @@
         <v>0.36459999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
         <v>63</v>
       </c>
@@ -10882,7 +10933,7 @@
         <v>8.6800000000000002E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
         <v>65</v>
       </c>
@@ -10911,7 +10962,7 @@
         <v>8.5699999999999998E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
         <v>67</v>
       </c>
@@ -10940,7 +10991,7 @@
         <v>0.33960000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
         <v>69</v>
       </c>
@@ -10969,7 +11020,7 @@
         <v>0.31680000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="18" t="s">
         <v>71</v>
       </c>
@@ -10998,7 +11049,7 @@
         <v>0.20300000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="18" t="s">
         <v>73</v>
       </c>
@@ -11027,7 +11078,7 @@
         <v>0.1903</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="18" t="s">
         <v>75</v>
       </c>
@@ -11056,7 +11107,7 @@
         <v>0.16109999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="18" t="s">
         <v>77</v>
       </c>
@@ -11085,7 +11136,7 @@
         <v>0.1555</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>3</v>
       </c>
@@ -11122,7 +11173,7 @@
         <v>0.18162500000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -11137,6 +11188,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11145,30 +11197,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14:I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -11197,7 +11249,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>56</v>
       </c>
@@ -11226,7 +11278,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>58</v>
       </c>
@@ -11255,7 +11307,7 @@
         <v>9.5799999999999996E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
         <v>60</v>
       </c>
@@ -11284,7 +11336,7 @@
         <v>0.1429</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
         <v>62</v>
       </c>
@@ -11313,7 +11365,7 @@
         <v>0.63639999999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
         <v>64</v>
       </c>
@@ -11342,7 +11394,7 @@
         <v>5.2600000000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
         <v>66</v>
       </c>
@@ -11371,7 +11423,7 @@
         <v>4.9799999999999997E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
         <v>68</v>
       </c>
@@ -11400,7 +11452,7 @@
         <v>0.29339999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
         <v>70</v>
       </c>
@@ -11429,7 +11481,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="18" t="s">
         <v>72</v>
       </c>
@@ -11458,7 +11510,7 @@
         <v>0.43659999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="18" t="s">
         <v>74</v>
       </c>
@@ -11487,7 +11539,7 @@
         <v>9.0899999999999995E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="18" t="s">
         <v>76</v>
       </c>
@@ -11516,7 +11568,7 @@
         <v>8.8700000000000001E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
@@ -11557,6 +11609,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/analysis/analyze.xlsx
+++ b/analysis/analyze.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\CityU\dissertation\Knee-Loading-Analysis\analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cwang224\Desktop\Knee-Loading-Analysis\analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" tabRatio="743"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" tabRatio="743" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Data and Features" sheetId="11" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="IoT random forest-L" sheetId="8" r:id="rId7"/>
     <sheet name="IoT random forest-R" sheetId="9" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="222">
   <si>
     <t>subject</t>
   </si>
@@ -670,17 +670,47 @@
   <si>
     <t>Threshold = 80% * max KAM</t>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>IoT-Left</t>
+  </si>
+  <si>
+    <t>IoT-Right</t>
+  </si>
+  <si>
+    <t>Single sensor model</t>
+  </si>
+  <si>
+    <t>Multiple sensors model</t>
+  </si>
+  <si>
+    <t>RF-left KAM</t>
+  </si>
+  <si>
+    <t>RF-right KAM</t>
+  </si>
+  <si>
+    <t>RF-LL KAM</t>
+  </si>
+  <si>
+    <t>RF-LM KAM</t>
+  </si>
+  <si>
+    <t>RF-RM KAM</t>
+  </si>
+  <si>
+    <t>RF-RL KAM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -739,27 +769,21 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="5">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -819,11 +843,57 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -877,11 +947,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -910,12 +983,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -930,4277 +1015,19 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Noraxon</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Right foot</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Coefficient!$A$3:$A$37</c:f>
-              <c:strCache>
-                <c:ptCount val="35"/>
-                <c:pt idx="0">
-                  <c:v>LLACx</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v> LLGYz</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v> RankleWid</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v> LMACy</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v> RLGYz</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v> LkneeWid</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v> LLACz</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v> RMGYz</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v> LLACy</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v> RMACx</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v> LMACx</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v> LMGYz</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v> RMACy</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v> Rleglen</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v> RLACy</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v> LLGYx</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v> LLGYy</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v> RLACx</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v> RLGYy</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v> RLACz</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v> LMGYy</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v> RLGYx</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v> RkneeWid</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v> LankleWid</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v> RMGYy</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v> LMACz</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v> LMGYx</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v> RMGYx</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v> RMACz</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v> age</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v> mass</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v> height</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v> Lleglen</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v> gender_M</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v> gender_F</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Coefficient!$B$3:$B$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
-                <c:pt idx="0">
-                  <c:v>0.25939072054060802</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.130622840267926</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.107055319938611</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.5657781754163997E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.0679502412865901E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.5811990542492303E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.0048173504884802E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.0034020051686199E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.6862380884943901E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.5738809685280299E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.3383702253420999E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.2933907970845699E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.2298460962854299E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.0995593463716301E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.6216696140536099E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.40277862664074E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.3886242625483099E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.34009988745985E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.2803188535949601E-2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.26520282638051E-2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.1704273498065401E-2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.1134064091048199E-2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.02074501982661E-2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>8.7485785934044696E-3</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>8.5079789905591202E-3</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>7.8721328362123203E-3</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>7.8622856187705002E-3</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>7.1832026324675103E-3</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>5.4825948518893702E-3</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>5.3308012312194E-3</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>5.0009839358514697E-3</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>3.0313942754427599E-3</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>2.9214508520093501E-3</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>3.1283001936043703E-4</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1.9983343435075199E-4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-44F8-4CD9-8DB8-3D2158A69BFD}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="372894224"/>
-        <c:axId val="372891480"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="372894224"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="372891480"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="372891480"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="372894224"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Noraxon </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Left foot</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Coefficient!$C$3:$C$37</c:f>
-              <c:strCache>
-                <c:ptCount val="35"/>
-                <c:pt idx="0">
-                  <c:v>RMACx</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v> RLACz</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v> RLGYy</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v> LMGYz</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v> LLGYz</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v> height</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v> RankleWid</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v> Rleglen</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v> RMGYy</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v> RMGYz</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v> LkneeWid</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v> mass</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v> LLACx</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v> RMACy</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v> RMACz</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v> LMACy</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v> RLGYz</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v> LLGYy</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v> RLACy</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v> RMGYx</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v> RkneeWid</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v> RLGYx</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v> LMACx</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v> Lleglen</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v> LLGYx</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v> LLACy</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v> LMGYy</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v> RLACx</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v> LLACz</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v> LMACz</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v> age</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v> LMGYx</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v> LankleWid</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v> gender_F</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v> gender_M</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Coefficient!$D$3:$D$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
-                <c:pt idx="0">
-                  <c:v>0.25554796527097401</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.2405772025782295E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.5550015265496198E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.0860476788209E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.4063083066198099E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.62520362108502E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.5756767654865899E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.3764641649320401E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.3176858287543999E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.7344953106372302E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.6317366384022899E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.58350331263522E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.9961798085714199E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.93241014977703E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.8666603698988E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.7366026247429001E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.73273187578298E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.72299595448836E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.6625835978022599E-2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.65915336406855E-2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.54223770323301E-2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.48209011547452E-2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.4531776753710699E-2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1.3940119555324501E-2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1.15081020160623E-2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1.06245656541556E-2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1.0213767342805199E-2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>9.3798036486073197E-3</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>8.8064275838203396E-3</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>7.80353192314036E-3</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>7.6564548648511898E-3</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>7.21062245606819E-3</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>5.1297641458099303E-3</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>2.14219836295875E-3</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>8.4144121829763296E-4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3035-43F5-B411-6E2A74F7E72E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="372896968"/>
-        <c:axId val="372897360"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="372896968"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="372897360"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="372897360"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="372896968"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>IoT Right foot</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Coefficient!$F$3:$F$37</c:f>
-              <c:strCache>
-                <c:ptCount val="35"/>
-                <c:pt idx="0">
-                  <c:v>RLGYz</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v> height</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v> LMGYz</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v> RLGYx</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v> RLACy</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v> RankleWid</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v> LMACx</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v> RLACx</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v> LMGYx</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v> RMGYz</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v> LMGYy</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v> age</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v> RLGYy</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v> LLGYz</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v> mass</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v> LLACy</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v> LMACy</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v> RMACx</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v> LLGYy</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v> LLACx</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v> Lleglen</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v> RMGYx</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v> LankleWid</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v> LLACz</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v> RMGYy</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v> LLGYx</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v> LMACz</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v> RLACz</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v> RMACy</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v> Rleglen</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v> RMACz</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v> LkneeWid</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v> RkneeWid</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v> gender_F</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v> gender_M</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Coefficient!$G$3:$G$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
-                <c:pt idx="0">
-                  <c:v>0.26682262522455202</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.17367401913633199</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.4287490626459701E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.2949181408222398E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.3113016476378099E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.9580384748637199E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.5711988155466999E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.4431668174214698E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.4057239895124202E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.2724228926068499E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.0634348394897601E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.05734913022112E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.89775561118571E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.7733446515827998E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.5855104151428101E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.50175411191113E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.3929671596449899E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.2974505174572199E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.2935435487041E-2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.2710073314445101E-2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.1484822069386599E-2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.12176566479124E-2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.11095341122892E-2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1.08167396100063E-2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>9.9819174643883107E-3</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>9.5354049067720593E-3</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>8.6848233721818196E-3</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>8.6110840566013397E-3</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>7.8231882276626995E-3</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>7.5063564708029501E-3</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>7.3060684903077603E-3</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>4.1389386721923703E-3</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>2.5315324185696E-3</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>3.3260916576126299E-4</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>2.2630837586602899E-4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BBF1-4EA2-B3C2-57D14E42AADA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="372892656"/>
-        <c:axId val="408507920"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="372892656"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="408507920"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="408507920"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="372892656"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>IoT Left foot</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Coefficient!$H$3:$H$37</c:f>
-              <c:strCache>
-                <c:ptCount val="35"/>
-                <c:pt idx="0">
-                  <c:v>LMGYz</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v> RankleWid</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v> RLGYz</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v> Rleglen</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v> RLACy</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v> LMACx</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v> RLACx</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v> LMGYx</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v> RMGYz</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v> LLACx</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v> LMGYy</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v> LLGYy</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v> RMGYx</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v> LLGYx</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v> LLGYz</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v> RLGYy</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v> LLACz</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v> RLGYx</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v> LMACy</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v> RLACz</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v> RMACz</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v> RMACy</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v> RMGYy</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v> LLACy</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v> RMACx</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v> LMACz</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v> RkneeWid</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v> age</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v> LankleWid</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v> mass</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v> Lleglen</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v> height</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v> LkneeWid</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v> gender_F</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v> gender_M</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Coefficient!$I$3:$I$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
-                <c:pt idx="0">
-                  <c:v>0.40692032010875401</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.126939593088437</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.13216176039121E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.4342965903614903E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.4744269015351298E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.34799817126779E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.2667241145945899E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.20792033744707E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.0528792629229901E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.9396940938054899E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.6991568291172501E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.3967926913249801E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.38038454860543E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.1816016795616601E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.0801570675881301E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.0354389815846301E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.00047249164914E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>9.9264162348632196E-3</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>9.4960046339698703E-3</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>9.3266299023289298E-3</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>9.2266490796442807E-3</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>8.9326608918488606E-3</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>8.7471398986864093E-3</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>7.6895477508456501E-3</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>7.0549896257730898E-3</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>6.9021809080963602E-3</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>5.7940661612460396E-3</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>5.0820085759190701E-3</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>4.9449359058623896E-3</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>4.6195187840236199E-3</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>3.88573711907914E-3</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>3.6680771412455401E-3</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>2.0880496911809001E-3</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1.9573236528783698E-3</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>4.9709562774559804E-4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-581B-43F3-96A0-5F683197D995}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="408509488"/>
-        <c:axId val="408504784"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="408509488"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="408504784"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="408504784"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="408509488"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>196069</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>76199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>609599</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>123826</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>123826</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>600074</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>590549</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>38099</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>500869</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>266699</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>13204</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>318004</xdr:colOff>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>51343</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5211,7 +1038,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5224,7 +1051,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7111219" y="266699"/>
+          <a:off x="8025619" y="76199"/>
           <a:ext cx="2684160" cy="3108869"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5500,59 +1327,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:S29"/>
+  <dimension ref="C4:S50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T18" sqref="T18"/>
+    <sheetView topLeftCell="D25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="9.25" customWidth="1"/>
-    <col min="3" max="3" width="10.58203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.58203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.4140625" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
     <col min="6" max="6" width="27" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.1640625" customWidth="1"/>
-    <col min="10" max="10" width="25.58203125" customWidth="1"/>
-    <col min="11" max="11" width="24.58203125" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" customWidth="1"/>
+    <col min="10" max="10" width="25.5703125" customWidth="1"/>
+    <col min="11" max="11" width="24.5703125" customWidth="1"/>
     <col min="12" max="12" width="14" customWidth="1"/>
-    <col min="13" max="13" width="15.58203125" customWidth="1"/>
-    <col min="14" max="14" width="11.4140625" customWidth="1"/>
-    <col min="16" max="16" width="16.83203125" customWidth="1"/>
+    <col min="13" max="13" width="15.5703125" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" customWidth="1"/>
+    <col min="16" max="16" width="16.85546875" customWidth="1"/>
     <col min="17" max="17" width="9" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.83203125" customWidth="1"/>
+    <col min="18" max="18" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:19" ht="20" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:19" ht="20.25">
       <c r="J4" s="4"/>
-      <c r="R4" s="30" t="s">
+      <c r="R4" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="S4" s="30"/>
-    </row>
-    <row r="5" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="24" t="s">
+      <c r="S4" s="21"/>
+    </row>
+    <row r="5" spans="3:19" ht="15.75" customHeight="1">
+      <c r="C5" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="J5" s="24" t="s">
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="J5" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="R5" s="20" t="s">
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="R5" s="19" t="s">
         <v>209</v>
       </c>
-      <c r="S5" s="20" t="b">
+      <c r="S5" s="19" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="3:19" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:19" ht="31.5">
       <c r="C6" s="5" t="s">
         <v>52</v>
       </c>
@@ -5577,14 +1404,14 @@
       <c r="M6" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="R6" s="20" t="s">
+      <c r="R6" s="19" t="s">
         <v>210</v>
       </c>
-      <c r="S6" s="20" t="b">
+      <c r="S6" s="19" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="3:19" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:19" ht="15.75">
       <c r="C7" s="7" t="s">
         <v>53</v>
       </c>
@@ -5597,7 +1424,7 @@
       <c r="F7" s="8">
         <v>20504</v>
       </c>
-      <c r="J7" s="25" t="s">
+      <c r="J7" s="26" t="s">
         <v>53</v>
       </c>
       <c r="K7" s="7" t="s">
@@ -5610,7 +1437,7 @@
         <v>7.6959999999999997E-3</v>
       </c>
     </row>
-    <row r="8" spans="3:19" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:19" ht="15.75">
       <c r="C8" s="7" t="s">
         <v>54</v>
       </c>
@@ -5623,7 +1450,7 @@
       <c r="F8" s="8">
         <v>12525</v>
       </c>
-      <c r="J8" s="25"/>
+      <c r="J8" s="26"/>
       <c r="K8" s="7" t="s">
         <v>155</v>
       </c>
@@ -5634,8 +1461,8 @@
         <v>8.6250000000000007E-3</v>
       </c>
     </row>
-    <row r="9" spans="3:19" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="J9" s="25"/>
+    <row r="9" spans="3:19" ht="15.75">
+      <c r="J9" s="26"/>
       <c r="K9" s="7" t="s">
         <v>156</v>
       </c>
@@ -5646,8 +1473,8 @@
         <v>2.8509999999999998E-3</v>
       </c>
     </row>
-    <row r="10" spans="3:19" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="J10" s="25"/>
+    <row r="10" spans="3:19" ht="31.5">
+      <c r="J10" s="26"/>
       <c r="K10" s="7" t="s">
         <v>157</v>
       </c>
@@ -5664,14 +1491,14 @@
         <v>165</v>
       </c>
     </row>
-    <row r="11" spans="3:19" ht="20" x14ac:dyDescent="0.3">
-      <c r="C11" s="24" t="s">
+    <row r="11" spans="3:19" ht="20.25">
+      <c r="C11" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="J11" s="25" t="s">
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="J11" s="26" t="s">
         <v>54</v>
       </c>
       <c r="K11" s="7" t="s">
@@ -5690,7 +1517,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="12" spans="3:19" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:19" ht="15.75">
       <c r="C12" s="5" t="s">
         <v>148</v>
       </c>
@@ -5703,7 +1530,7 @@
       <c r="F12" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="J12" s="25"/>
+      <c r="J12" s="26"/>
       <c r="K12" s="7" t="s">
         <v>155</v>
       </c>
@@ -5720,7 +1547,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="13" spans="3:19" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:19" ht="15.75">
       <c r="C13" s="7" t="s">
         <v>84</v>
       </c>
@@ -5733,7 +1560,7 @@
       <c r="F13" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="J13" s="25"/>
+      <c r="J13" s="26"/>
       <c r="K13" s="7" t="s">
         <v>156</v>
       </c>
@@ -5750,7 +1577,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="14" spans="3:19" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:19" ht="31.5">
       <c r="C14" s="7" t="s">
         <v>88</v>
       </c>
@@ -5763,7 +1590,7 @@
       <c r="F14" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="J14" s="25"/>
+      <c r="J14" s="26"/>
       <c r="K14" s="17" t="s">
         <v>157</v>
       </c>
@@ -5774,7 +1601,7 @@
         <v>2.624E-3</v>
       </c>
     </row>
-    <row r="15" spans="3:19" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:19" ht="15.75">
       <c r="C15" s="7" t="s">
         <v>92</v>
       </c>
@@ -5788,7 +1615,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="3:19" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:19" ht="31.5">
       <c r="C16" s="7" t="s">
         <v>96</v>
       </c>
@@ -5802,7 +1629,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="17" spans="3:18" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:18" ht="31.5">
       <c r="C17" s="7" t="s">
         <v>100</v>
       </c>
@@ -5816,7 +1643,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="3:18" ht="20" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:18" ht="20.25">
       <c r="C18" s="7" t="s">
         <v>104</v>
       </c>
@@ -5829,19 +1656,19 @@
       <c r="F18" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="J18" s="21" t="s">
+      <c r="J18" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="22"/>
-      <c r="P18" s="22"/>
-      <c r="Q18" s="22"/>
-      <c r="R18" s="23"/>
-    </row>
-    <row r="19" spans="3:18" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="24"/>
+    </row>
+    <row r="19" spans="3:18" ht="21" customHeight="1">
       <c r="C19" s="7" t="s">
         <v>108</v>
       </c>
@@ -5882,7 +1709,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="3:18" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:18" ht="15.75">
       <c r="C20" s="7" t="s">
         <v>112</v>
       </c>
@@ -5923,7 +1750,7 @@
         <v>0.27650000000000002</v>
       </c>
     </row>
-    <row r="21" spans="3:18" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:18" ht="15.75">
       <c r="C21" s="7" t="s">
         <v>115</v>
       </c>
@@ -5964,7 +1791,7 @@
         <v>0.2475</v>
       </c>
     </row>
-    <row r="22" spans="3:18" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:18" ht="15.75">
       <c r="C22" s="7" t="s">
         <v>118</v>
       </c>
@@ -6005,7 +1832,7 @@
         <v>0.18160000000000001</v>
       </c>
     </row>
-    <row r="23" spans="3:18" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:18" ht="15.75">
       <c r="C23" s="7" t="s">
         <v>121</v>
       </c>
@@ -6046,7 +1873,7 @@
         <v>0.25700000000000001</v>
       </c>
     </row>
-    <row r="24" spans="3:18" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:18" ht="15.75">
       <c r="C24" s="7" t="s">
         <v>125</v>
       </c>
@@ -6060,7 +1887,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="25" spans="3:18" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:18" ht="31.5">
       <c r="C25" s="7" t="s">
         <v>129</v>
       </c>
@@ -6083,7 +1910,7 @@
       <c r="Q25" s="16"/>
       <c r="R25" s="16"/>
     </row>
-    <row r="26" spans="3:18" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:18" ht="15.75">
       <c r="C26" s="7" t="s">
         <v>133</v>
       </c>
@@ -6106,7 +1933,7 @@
       <c r="Q26" s="3"/>
       <c r="R26" s="3"/>
     </row>
-    <row r="27" spans="3:18" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:18" ht="15.75">
       <c r="C27" s="7" t="s">
         <v>137</v>
       </c>
@@ -6129,7 +1956,7 @@
       <c r="Q27" s="16"/>
       <c r="R27" s="16"/>
     </row>
-    <row r="28" spans="3:18" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:18" ht="15.75">
       <c r="C28" s="12" t="s">
         <v>114</v>
       </c>
@@ -6144,7 +1971,7 @@
       </c>
       <c r="J28" s="9"/>
     </row>
-    <row r="29" spans="3:18" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:18" ht="15.75">
       <c r="C29" s="12" t="s">
         <v>117</v>
       </c>
@@ -6158,8 +1985,212 @@
         <v>120</v>
       </c>
     </row>
+    <row r="30" spans="3:18" ht="20.25">
+      <c r="J30" s="25" t="s">
+        <v>214</v>
+      </c>
+      <c r="K30" s="25"/>
+      <c r="L30" s="25"/>
+      <c r="M30" s="25"/>
+    </row>
+    <row r="31" spans="3:18" ht="15.75">
+      <c r="J31" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="L31" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M31" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" ht="15.75">
+      <c r="J32" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="K32" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="L32" s="8">
+        <v>0.84079999999999999</v>
+      </c>
+      <c r="M32" s="8">
+        <v>4.1650000000000003E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="10:13" ht="15.75">
+      <c r="J33" s="26"/>
+      <c r="K33" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="L33" s="8">
+        <v>0.86409999999999998</v>
+      </c>
+      <c r="M33" s="8">
+        <v>3.8219999999999999E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="10:13" ht="15.75">
+      <c r="J34" s="26"/>
+      <c r="K34" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="L34" s="8">
+        <v>0.81110000000000004</v>
+      </c>
+      <c r="M34" s="8">
+        <v>4.6129999999999999E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="10:13" ht="15.75">
+      <c r="J35" s="26"/>
+      <c r="K35" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="L35" s="8">
+        <v>0.84150000000000003</v>
+      </c>
+      <c r="M35" s="8">
+        <v>4.1019999999999997E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="10:13" ht="15.75">
+      <c r="J36" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="K36" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="L36" s="8">
+        <v>0.83120000000000005</v>
+      </c>
+      <c r="M36" s="8">
+        <v>4.2779999999999997E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="10:13" ht="15.75">
+      <c r="J37" s="26"/>
+      <c r="K37" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="L37" s="8">
+        <v>0.85260000000000002</v>
+      </c>
+      <c r="M37" s="8">
+        <v>4.0549999999999996E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="10:13" ht="15.75">
+      <c r="J38" s="26"/>
+      <c r="K38" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="L38" s="8">
+        <v>0.81589999999999996</v>
+      </c>
+      <c r="M38" s="8">
+        <v>4.5830000000000003E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="10:13" ht="15.75">
+      <c r="J39" s="26"/>
+      <c r="K39" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="L39" s="8">
+        <v>0.85660000000000003</v>
+      </c>
+      <c r="M39" s="8">
+        <v>3.9940000000000002E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="10:13" ht="20.25">
+      <c r="J43" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="K43" s="25"/>
+      <c r="L43" s="25"/>
+      <c r="M43" s="25"/>
+    </row>
+    <row r="44" spans="10:13" ht="15.75">
+      <c r="J44" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K44" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="L44" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M44" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="10:13" ht="24" customHeight="1">
+      <c r="J45" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="K45" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="L45" s="8">
+        <v>0.93489999999999995</v>
+      </c>
+      <c r="M45" s="8">
+        <v>2.8509999999999998E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="10:13" ht="36" customHeight="1">
+      <c r="J46" s="35"/>
+      <c r="K46" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="L46" s="8">
+        <v>0.92959999999999998</v>
+      </c>
+      <c r="M46" s="8">
+        <v>2.9559999999999999E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="10:13" ht="22.5" customHeight="1">
+      <c r="J47" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="K47" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="L47" s="8">
+        <v>0.93859999999999999</v>
+      </c>
+      <c r="M47" s="8">
+        <v>2.6280000000000001E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="10:13" ht="29.25" customHeight="1">
+      <c r="J48" s="35"/>
+      <c r="K48" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="L48" s="8">
+        <v>0.9385</v>
+      </c>
+      <c r="M48" s="8">
+        <v>2.624E-3</v>
+      </c>
+    </row>
+    <row r="49" ht="15" customHeight="1"/>
+    <row r="50" ht="15" customHeight="1"/>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="13">
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="J45:J46"/>
+    <mergeCell ref="J43:M43"/>
+    <mergeCell ref="J32:J35"/>
+    <mergeCell ref="J30:M30"/>
+    <mergeCell ref="J36:J39"/>
     <mergeCell ref="R4:S4"/>
     <mergeCell ref="J18:R18"/>
     <mergeCell ref="C11:F11"/>
@@ -6176,974 +2207,1065 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.58203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.83203125" customWidth="1"/>
-    <col min="6" max="6" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.7109375" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5703125" customWidth="1"/>
+    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="30"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+    </row>
+    <row r="2" spans="1:11" ht="31.5" customHeight="1">
+      <c r="A2" s="32"/>
+      <c r="B2" s="27" t="s">
         <v>206</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="28"/>
-      <c r="F1" s="26" t="s">
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="27" t="s">
         <v>205</v>
       </c>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="28"/>
-    </row>
-    <row r="2" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="26" t="s">
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="29"/>
+    </row>
+    <row r="3" spans="1:11" ht="20.25" customHeight="1">
+      <c r="A3" s="32"/>
+      <c r="B3" s="27" t="s">
+        <v>208</v>
+      </c>
+      <c r="C3" s="29"/>
+      <c r="D3" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="26" t="s">
+      <c r="E3" s="29"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="27" t="s">
         <v>208</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="F2" s="26" t="s">
+      <c r="H3" s="29"/>
+      <c r="I3" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="G2" s="28"/>
-      <c r="H2" s="26" t="s">
-        <v>208</v>
-      </c>
-      <c r="I2" s="28"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
+      <c r="J3" s="29"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="32"/>
+      <c r="B4" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="33">
+        <v>0.25554796527097401</v>
+      </c>
+      <c r="D4" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="19">
+      <c r="E4" s="33">
         <v>0.25939072054060802</v>
       </c>
-      <c r="C3" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="D3" s="19">
-        <v>0.25554796527097401</v>
-      </c>
-      <c r="F3" s="19" t="s">
+      <c r="F4" s="31"/>
+      <c r="G4" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="H4" s="33">
+        <v>0.40692032010875401</v>
+      </c>
+      <c r="I4" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="G3" s="19">
+      <c r="J4" s="33">
         <v>0.26682262522455202</v>
       </c>
-      <c r="H3" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="I3" s="19">
-        <v>0.40692032010875401</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="19" t="s">
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="32"/>
+      <c r="B5" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="C5" s="33">
+        <v>8.2405772025782295E-2</v>
+      </c>
+      <c r="D5" s="33" t="s">
         <v>170</v>
       </c>
-      <c r="B4" s="19">
+      <c r="E5" s="33">
         <v>0.130622840267926</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="F5" s="31"/>
+      <c r="G5" s="33" t="s">
+        <v>171</v>
+      </c>
+      <c r="H5" s="33">
+        <v>0.126939593088437</v>
+      </c>
+      <c r="I5" s="33" t="s">
+        <v>200</v>
+      </c>
+      <c r="J5" s="33">
+        <v>0.17367401913633199</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="32"/>
+      <c r="B6" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="C6" s="33">
+        <v>6.5550015265496198E-2</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>171</v>
+      </c>
+      <c r="E6" s="33">
+        <v>0.107055319938611</v>
+      </c>
+      <c r="F6" s="31"/>
+      <c r="G6" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="H6" s="33">
+        <v>8.13216176039121E-2</v>
+      </c>
+      <c r="I6" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="J6" s="33">
+        <v>7.4287490626459701E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="32"/>
+      <c r="B7" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="C7" s="33">
+        <v>5.0860476788209E-2</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="E7" s="33">
+        <v>4.5657781754163997E-2</v>
+      </c>
+      <c r="F7" s="31"/>
+      <c r="G7" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="H7" s="33">
+        <v>4.4342965903614903E-2</v>
+      </c>
+      <c r="I7" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="J7" s="33">
+        <v>5.2949181408222398E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="32"/>
+      <c r="B8" s="33" t="s">
+        <v>170</v>
+      </c>
+      <c r="C8" s="33">
+        <v>4.4063083066198099E-2</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="E8" s="33">
+        <v>4.0679502412865901E-2</v>
+      </c>
+      <c r="F8" s="31"/>
+      <c r="G8" s="33" t="s">
+        <v>183</v>
+      </c>
+      <c r="H8" s="33">
+        <v>3.4744269015351298E-2</v>
+      </c>
+      <c r="I8" s="33" t="s">
+        <v>183</v>
+      </c>
+      <c r="J8" s="33">
+        <v>3.3113016476378099E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="32"/>
+      <c r="B9" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="C9" s="8">
+        <v>3.62520362108502E-2</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="E9" s="8">
+        <v>3.5811990542492303E-2</v>
+      </c>
+      <c r="F9" s="31"/>
+      <c r="G9" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="H9" s="8">
+        <v>2.34799817126779E-2</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="J9" s="8">
+        <v>2.9580384748637199E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="32"/>
+      <c r="B10" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C10" s="8">
+        <v>3.5756767654865899E-2</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="E10" s="8">
+        <v>3.0048173504884802E-2</v>
+      </c>
+      <c r="F10" s="31"/>
+      <c r="G10" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="H10" s="8">
+        <v>2.2667241145945899E-2</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="J10" s="8">
+        <v>2.5711988155466999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="32"/>
+      <c r="B11" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="C11" s="8">
+        <v>3.3764641649320401E-2</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="E11" s="8">
+        <v>3.0034020051686199E-2</v>
+      </c>
+      <c r="F11" s="31"/>
+      <c r="G11" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="H11" s="8">
+        <v>2.20792033744707E-2</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="J11" s="8">
+        <v>2.4431668174214698E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="32"/>
+      <c r="B12" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="C12" s="8">
+        <v>3.3176858287543999E-2</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="E12" s="8">
+        <v>2.6862380884943901E-2</v>
+      </c>
+      <c r="F12" s="31"/>
+      <c r="G12" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="H12" s="8">
+        <v>2.0528792629229901E-2</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="J12" s="8">
+        <v>2.4057239895124202E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="32"/>
+      <c r="B13" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="C13" s="8">
+        <v>2.7344953106372302E-2</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="E13" s="8">
+        <v>2.5738809685280299E-2</v>
+      </c>
+      <c r="F13" s="31"/>
+      <c r="G13" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="H13" s="8">
+        <v>1.9396940938054899E-2</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="J13" s="8">
+        <v>2.2724228926068499E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="32"/>
+      <c r="B14" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="C14" s="8">
+        <v>2.6317366384022899E-2</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="E14" s="8">
+        <v>2.3383702253420999E-2</v>
+      </c>
+      <c r="F14" s="31"/>
+      <c r="G14" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="H14" s="8">
+        <v>1.6991568291172501E-2</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="J14" s="8">
+        <v>2.0634348394897601E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="32"/>
+      <c r="B15" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="C15" s="8">
+        <v>2.58350331263522E-2</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="E15" s="8">
+        <v>2.2933907970845699E-2</v>
+      </c>
+      <c r="F15" s="31"/>
+      <c r="G15" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="H15" s="8">
+        <v>1.3967926913249801E-2</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="J15" s="8">
+        <v>2.05734913022112E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="32"/>
+      <c r="B16" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="C16" s="8">
+        <v>1.9961798085714199E-2</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="E16" s="8">
+        <v>2.2298460962854299E-2</v>
+      </c>
+      <c r="F16" s="31"/>
+      <c r="G16" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="H16" s="8">
+        <v>1.38038454860543E-2</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="J16" s="8">
+        <v>1.89775561118571E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="32"/>
+      <c r="B17" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="C17" s="8">
+        <v>1.93241014977703E-2</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="E17" s="8">
+        <v>2.0995593463716301E-2</v>
+      </c>
+      <c r="F17" s="31"/>
+      <c r="G17" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="H17" s="8">
+        <v>1.1816016795616601E-2</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="J17" s="8">
+        <v>1.7733446515827998E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="32"/>
+      <c r="B18" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="C18" s="8">
+        <v>1.8666603698988E-2</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="E18" s="8">
+        <v>1.6216696140536099E-2</v>
+      </c>
+      <c r="F18" s="31"/>
+      <c r="G18" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="H18" s="8">
+        <v>1.0801570675881301E-2</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="J18" s="8">
+        <v>1.5855104151428101E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="32"/>
+      <c r="B19" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="C19" s="8">
+        <v>1.7366026247429001E-2</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="E19" s="8">
+        <v>1.40277862664074E-2</v>
+      </c>
+      <c r="F19" s="31"/>
+      <c r="G19" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="H19" s="8">
+        <v>1.0354389815846301E-2</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="J19" s="8">
+        <v>1.50175411191113E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="32"/>
+      <c r="B20" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C20" s="8">
+        <v>1.73273187578298E-2</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="E20" s="8">
+        <v>1.3886242625483099E-2</v>
+      </c>
+      <c r="F20" s="31"/>
+      <c r="G20" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="H20" s="8">
+        <v>1.00047249164914E-2</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="J20" s="8">
+        <v>1.3929671596449899E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="32"/>
+      <c r="B21" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="C21" s="8">
+        <v>1.72299595448836E-2</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="E21" s="8">
+        <v>1.34009988745985E-2</v>
+      </c>
+      <c r="F21" s="31"/>
+      <c r="G21" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="H21" s="8">
+        <v>9.9264162348632196E-3</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="J21" s="8">
+        <v>1.2974505174572199E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="32"/>
+      <c r="B22" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C22" s="8">
+        <v>1.6625835978022599E-2</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="E22" s="8">
+        <v>1.2803188535949601E-2</v>
+      </c>
+      <c r="F22" s="31"/>
+      <c r="G22" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="H22" s="8">
+        <v>9.4960046339698703E-3</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="J22" s="8">
+        <v>1.2935435487041E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="32"/>
+      <c r="B23" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="C23" s="8">
+        <v>1.65915336406855E-2</v>
+      </c>
+      <c r="D23" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="D4" s="19">
-        <v>8.2405772025782295E-2</v>
-      </c>
-      <c r="F4" s="19" t="s">
+      <c r="E23" s="8">
+        <v>1.26520282638051E-2</v>
+      </c>
+      <c r="F23" s="31"/>
+      <c r="G23" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="H23" s="8">
+        <v>9.3266299023289298E-3</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="J23" s="8">
+        <v>1.2710073314445101E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="32"/>
+      <c r="B24" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="C24" s="8">
+        <v>1.54223770323301E-2</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="E24" s="8">
+        <v>1.1704273498065401E-2</v>
+      </c>
+      <c r="F24" s="31"/>
+      <c r="G24" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="H24" s="8">
+        <v>9.2266490796442807E-3</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="J24" s="8">
+        <v>1.1484822069386599E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="32"/>
+      <c r="B25" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="C25" s="8">
+        <v>1.48209011547452E-2</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="E25" s="8">
+        <v>1.1134064091048199E-2</v>
+      </c>
+      <c r="F25" s="31"/>
+      <c r="G25" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="H25" s="8">
+        <v>8.9326608918488606E-3</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="J25" s="8">
+        <v>1.12176566479124E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A26" s="32"/>
+      <c r="B26" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="C26" s="8">
+        <v>1.4531776753710699E-2</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="E26" s="8">
+        <v>1.02074501982661E-2</v>
+      </c>
+      <c r="F26" s="31"/>
+      <c r="G26" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="H26" s="8">
+        <v>8.7471398986864093E-3</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="J26" s="8">
+        <v>1.11095341122892E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="15" customHeight="1">
+      <c r="A27" s="32"/>
+      <c r="B27" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="C27" s="8">
+        <v>1.3940119555324501E-2</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="E27" s="8">
+        <v>8.7485785934044696E-3</v>
+      </c>
+      <c r="F27" s="31"/>
+      <c r="G27" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="H27" s="8">
+        <v>7.6895477508456501E-3</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="J27" s="8">
+        <v>1.08167396100063E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="32"/>
+      <c r="B28" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C28" s="8">
+        <v>1.15081020160623E-2</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="E28" s="8">
+        <v>8.5079789905591202E-3</v>
+      </c>
+      <c r="F28" s="31"/>
+      <c r="G28" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="H28" s="8">
+        <v>7.0549896257730898E-3</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="J28" s="8">
+        <v>9.9819174643883107E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="32"/>
+      <c r="B29" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="C29" s="8">
+        <v>1.06245656541556E-2</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="E29" s="8">
+        <v>7.8721328362123203E-3</v>
+      </c>
+      <c r="F29" s="31"/>
+      <c r="G29" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="H29" s="8">
+        <v>6.9021809080963602E-3</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="J29" s="8">
+        <v>9.5354049067720593E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="32"/>
+      <c r="B30" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="C30" s="8">
+        <v>1.0213767342805199E-2</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="E30" s="8">
+        <v>7.8622856187705002E-3</v>
+      </c>
+      <c r="F30" s="31"/>
+      <c r="G30" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="H30" s="8">
+        <v>5.7940661612460396E-3</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="J30" s="8">
+        <v>8.6848233721818196E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="32"/>
+      <c r="B31" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="C31" s="8">
+        <v>9.3798036486073197E-3</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="E31" s="8">
+        <v>7.1832026324675103E-3</v>
+      </c>
+      <c r="F31" s="31"/>
+      <c r="G31" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="H31" s="8">
+        <v>5.0820085759190701E-3</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="J31" s="8">
+        <v>8.6110840566013397E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="32"/>
+      <c r="B32" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C32" s="8">
+        <v>8.8064275838203396E-3</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="E32" s="8">
+        <v>5.4825948518893702E-3</v>
+      </c>
+      <c r="F32" s="31"/>
+      <c r="G32" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="H32" s="8">
+        <v>4.9449359058623896E-3</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="J32" s="8">
+        <v>7.8231882276626995E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="32"/>
+      <c r="B33" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="C33" s="8">
+        <v>7.80353192314036E-3</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="E33" s="8">
+        <v>5.3308012312194E-3</v>
+      </c>
+      <c r="F33" s="31"/>
+      <c r="G33" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="H33" s="8">
+        <v>4.6195187840236199E-3</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="J33" s="8">
+        <v>7.5063564708029501E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="32"/>
+      <c r="B34" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="C34" s="8">
+        <v>7.6564548648511898E-3</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E34" s="8">
+        <v>5.0009839358514697E-3</v>
+      </c>
+      <c r="F34" s="31"/>
+      <c r="G34" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="H34" s="8">
+        <v>3.88573711907914E-3</v>
+      </c>
+      <c r="I34" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="J34" s="8">
+        <v>7.3060684903077603E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="32"/>
+      <c r="B35" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="C35" s="8">
+        <v>7.21062245606819E-3</v>
+      </c>
+      <c r="D35" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="G4" s="19">
-        <v>0.17367401913633199</v>
-      </c>
-      <c r="H4" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="I4" s="19">
-        <v>0.126939593088437</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="B5" s="19">
-        <v>0.107055319938611</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>187</v>
-      </c>
-      <c r="D5" s="19">
-        <v>6.5550015265496198E-2</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="G5" s="19">
-        <v>7.4287490626459701E-2</v>
-      </c>
-      <c r="H5" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="I5" s="19">
-        <v>8.13216176039121E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="B6" s="19">
-        <v>4.5657781754163997E-2</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="D6" s="19">
-        <v>5.0860476788209E-2</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="G6" s="19">
-        <v>5.2949181408222398E-2</v>
-      </c>
-      <c r="H6" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="I6" s="19">
-        <v>4.4342965903614903E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="B7" s="19">
-        <v>4.0679502412865901E-2</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="D7" s="19">
-        <v>4.4063083066198099E-2</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="G7" s="19">
-        <v>3.3113016476378099E-2</v>
-      </c>
-      <c r="H7" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="I7" s="19">
-        <v>3.4744269015351298E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+      <c r="E35" s="8">
+        <v>3.0313942754427599E-3</v>
+      </c>
+      <c r="F35" s="31"/>
+      <c r="G35" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="H35" s="8">
+        <v>3.6680771412455401E-3</v>
+      </c>
+      <c r="I35" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="B8" s="8">
-        <v>3.5811990542492303E-2</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="D8" s="8">
-        <v>3.62520362108502E-2</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="G8" s="8">
-        <v>2.9580384748637199E-2</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="I8" s="8">
-        <v>2.34799817126779E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="B9" s="8">
-        <v>3.0048173504884802E-2</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="D9" s="8">
-        <v>3.5756767654865899E-2</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="G9" s="8">
-        <v>2.5711988155466999E-2</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="I9" s="8">
-        <v>2.2667241145945899E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="B10" s="8">
-        <v>3.0034020051686199E-2</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="D10" s="8">
-        <v>3.3764641649320401E-2</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="G10" s="8">
-        <v>2.4431668174214698E-2</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="I10" s="8">
-        <v>2.20792033744707E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="B11" s="8">
-        <v>2.6862380884943901E-2</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="D11" s="8">
-        <v>3.3176858287543999E-2</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="G11" s="8">
-        <v>2.4057239895124202E-2</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="I11" s="8">
-        <v>2.0528792629229901E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="B12" s="8">
-        <v>2.5738809685280299E-2</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="D12" s="8">
-        <v>2.7344953106372302E-2</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="G12" s="8">
-        <v>2.2724228926068499E-2</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="I12" s="8">
-        <v>1.9396940938054899E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="B13" s="8">
-        <v>2.3383702253420999E-2</v>
-      </c>
-      <c r="C13" s="8" t="s">
+      <c r="J35" s="8">
+        <v>4.1389386721923703E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="32"/>
+      <c r="B36" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="C36" s="8">
+        <v>5.1297641458099303E-3</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="E36" s="8">
+        <v>2.9214508520093501E-3</v>
+      </c>
+      <c r="F36" s="31"/>
+      <c r="G36" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="D13" s="8">
-        <v>2.6317366384022899E-2</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="G13" s="8">
-        <v>2.0634348394897601E-2</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="I13" s="8">
-        <v>1.6991568291172501E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="B14" s="8">
-        <v>2.2933907970845699E-2</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="D14" s="8">
-        <v>2.58350331263522E-2</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="G14" s="8">
-        <v>2.05734913022112E-2</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="I14" s="8">
-        <v>1.3967926913249801E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="B15" s="8">
-        <v>2.2298460962854299E-2</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="D15" s="8">
-        <v>1.9961798085714199E-2</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="G15" s="8">
-        <v>1.89775561118571E-2</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="I15" s="8">
-        <v>1.38038454860543E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="B16" s="8">
-        <v>2.0995593463716301E-2</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="D16" s="8">
-        <v>1.93241014977703E-2</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="G16" s="8">
-        <v>1.7733446515827998E-2</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="I16" s="8">
-        <v>1.1816016795616601E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="B17" s="8">
-        <v>1.6216696140536099E-2</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="D17" s="8">
-        <v>1.8666603698988E-2</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="G17" s="8">
-        <v>1.5855104151428101E-2</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="I17" s="8">
-        <v>1.0801570675881301E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="B18" s="8">
-        <v>1.40277862664074E-2</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="D18" s="8">
-        <v>1.7366026247429001E-2</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="G18" s="8">
-        <v>1.50175411191113E-2</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="I18" s="8">
-        <v>1.0354389815846301E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="B19" s="8">
-        <v>1.3886242625483099E-2</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="D19" s="8">
-        <v>1.73273187578298E-2</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="G19" s="8">
-        <v>1.3929671596449899E-2</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="I19" s="8">
-        <v>1.00047249164914E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="B20" s="8">
-        <v>1.34009988745985E-2</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="D20" s="8">
-        <v>1.72299595448836E-2</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="G20" s="8">
-        <v>1.2974505174572199E-2</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="I20" s="8">
-        <v>9.9264162348632196E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="B21" s="8">
-        <v>1.2803188535949601E-2</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="D21" s="8">
-        <v>1.6625835978022599E-2</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="G21" s="8">
-        <v>1.2935435487041E-2</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="I21" s="8">
-        <v>9.4960046339698703E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="B22" s="8">
-        <v>1.26520282638051E-2</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="D22" s="8">
-        <v>1.65915336406855E-2</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="G22" s="8">
-        <v>1.2710073314445101E-2</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="I22" s="8">
-        <v>9.3266299023289298E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="B23" s="8">
-        <v>1.1704273498065401E-2</v>
-      </c>
-      <c r="C23" s="8" t="s">
+      <c r="H36" s="8">
+        <v>2.0880496911809001E-3</v>
+      </c>
+      <c r="I36" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="D23" s="8">
-        <v>1.54223770323301E-2</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="G23" s="8">
-        <v>1.1484822069386599E-2</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="I23" s="8">
-        <v>9.2266490796442807E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="B24" s="8">
-        <v>1.1134064091048199E-2</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="D24" s="8">
-        <v>1.48209011547452E-2</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="G24" s="8">
-        <v>1.12176566479124E-2</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="I24" s="8">
-        <v>8.9326608918488606E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="B25" s="8">
-        <v>1.02074501982661E-2</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="D25" s="8">
-        <v>1.4531776753710699E-2</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="G25" s="8">
-        <v>1.11095341122892E-2</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="I25" s="8">
-        <v>8.7471398986864093E-3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="B26" s="8">
-        <v>8.7485785934044696E-3</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="D26" s="8">
-        <v>1.3940119555324501E-2</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="G26" s="8">
-        <v>1.08167396100063E-2</v>
-      </c>
-      <c r="H26" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="I26" s="8">
-        <v>7.6895477508456501E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="B27" s="8">
-        <v>8.5079789905591202E-3</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="D27" s="8">
-        <v>1.15081020160623E-2</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="G27" s="8">
-        <v>9.9819174643883107E-3</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="I27" s="8">
-        <v>7.0549896257730898E-3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="B28" s="8">
-        <v>7.8721328362123203E-3</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="D28" s="8">
-        <v>1.06245656541556E-2</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="G28" s="8">
-        <v>9.5354049067720593E-3</v>
-      </c>
-      <c r="H28" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="I28" s="8">
-        <v>6.9021809080963602E-3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="B29" s="8">
-        <v>7.8622856187705002E-3</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="D29" s="8">
-        <v>1.0213767342805199E-2</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="G29" s="8">
-        <v>8.6848233721818196E-3</v>
-      </c>
-      <c r="H29" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="I29" s="8">
-        <v>5.7940661612460396E-3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="B30" s="8">
-        <v>7.1832026324675103E-3</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="D30" s="8">
-        <v>9.3798036486073197E-3</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="G30" s="8">
-        <v>8.6110840566013397E-3</v>
-      </c>
-      <c r="H30" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="I30" s="8">
-        <v>5.0820085759190701E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="B31" s="8">
-        <v>5.4825948518893702E-3</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="D31" s="8">
-        <v>8.8064275838203396E-3</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="G31" s="8">
-        <v>7.8231882276626995E-3</v>
-      </c>
-      <c r="H31" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="I31" s="8">
-        <v>4.9449359058623896E-3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="B32" s="8">
-        <v>5.3308012312194E-3</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="D32" s="8">
-        <v>7.80353192314036E-3</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="G32" s="8">
-        <v>7.5063564708029501E-3</v>
-      </c>
-      <c r="H32" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="I32" s="8">
-        <v>4.6195187840236199E-3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="B33" s="8">
-        <v>5.0009839358514697E-3</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="D33" s="8">
-        <v>7.6564548648511898E-3</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="G33" s="8">
-        <v>7.3060684903077603E-3</v>
-      </c>
-      <c r="H33" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="I33" s="8">
-        <v>3.88573711907914E-3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="B34" s="8">
-        <v>3.0313942754427599E-3</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="D34" s="8">
-        <v>7.21062245606819E-3</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="G34" s="8">
-        <v>4.1389386721923703E-3</v>
-      </c>
-      <c r="H34" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="I34" s="8">
-        <v>3.6680771412455401E-3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="B35" s="8">
-        <v>2.9214508520093501E-3</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="D35" s="8">
-        <v>5.1297641458099303E-3</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="G35" s="8">
+      <c r="J36" s="8">
         <v>2.5315324185696E-3</v>
       </c>
-      <c r="H35" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="I35" s="8">
-        <v>2.0880496911809001E-3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="8" t="s">
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="32"/>
+      <c r="B37" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="C37" s="8">
+        <v>2.14219836295875E-3</v>
+      </c>
+      <c r="D37" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="B36" s="8">
+      <c r="E37" s="8">
         <v>3.1283001936043703E-4</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="F37" s="31"/>
+      <c r="G37" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="D36" s="8">
-        <v>2.14219836295875E-3</v>
-      </c>
-      <c r="F36" s="8" t="s">
+      <c r="H37" s="8">
+        <v>1.9573236528783698E-3</v>
+      </c>
+      <c r="I37" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="G36" s="8">
+      <c r="J37" s="8">
         <v>3.3260916576126299E-4</v>
       </c>
-      <c r="H36" s="8" t="s">
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="32"/>
+      <c r="B38" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="C38" s="8">
+        <v>8.4144121829763296E-4</v>
+      </c>
+      <c r="D38" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="I36" s="8">
-        <v>1.9573236528783698E-3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="B37" s="8">
+      <c r="E38" s="8">
         <v>1.9983343435075199E-4</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="F38" s="31"/>
+      <c r="G38" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="D37" s="8">
-        <v>8.4144121829763296E-4</v>
-      </c>
-      <c r="F37" s="8" t="s">
+      <c r="H38" s="8">
+        <v>4.9709562774559804E-4</v>
+      </c>
+      <c r="I38" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="G37" s="8">
+      <c r="J38" s="8">
         <v>2.2630837586602899E-4</v>
       </c>
-      <c r="H37" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="I37" s="8">
-        <v>4.9709562774559804E-4</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
+  <mergeCells count="9">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:A38"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="F2:F38"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7156,33 +3278,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B46" sqref="B46:I46"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I67" sqref="I67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="9.1640625" style="1"/>
-    <col min="3" max="6" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.1640625" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="7.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -7211,7 +3338,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -7240,7 +3367,7 @@
         <v>0.24479999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -7269,7 +3396,7 @@
         <v>0.2727</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -7298,7 +3425,7 @@
         <v>0.1232</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -7327,7 +3454,7 @@
         <v>0.12839999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -7356,7 +3483,7 @@
         <v>9.8799999999999999E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -7385,7 +3512,7 @@
         <v>0.17910000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
@@ -7414,7 +3541,7 @@
         <v>9.4000000000000004E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
@@ -7443,7 +3570,7 @@
         <v>9.7100000000000006E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
@@ -7472,7 +3599,7 @@
         <v>0.14099999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
@@ -7501,7 +3628,7 @@
         <v>0.2422</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
@@ -7530,7 +3657,7 @@
         <v>4.1099999999999998E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
@@ -7559,7 +3686,7 @@
         <v>6.1400000000000003E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
@@ -7588,7 +3715,7 @@
         <v>0.1333</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
@@ -7617,7 +3744,7 @@
         <v>7.9600000000000004E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9">
       <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
@@ -7646,7 +3773,7 @@
         <v>0.77359999999999995</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9">
       <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
@@ -7675,7 +3802,7 @@
         <v>0.25480000000000003</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
@@ -7704,7 +3831,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9">
       <c r="A20" s="2" t="s">
         <v>27</v>
       </c>
@@ -7733,7 +3860,7 @@
         <v>0.28570000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9">
       <c r="A21" s="2" t="s">
         <v>28</v>
       </c>
@@ -7762,7 +3889,7 @@
         <v>0.43020000000000003</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9">
       <c r="A22" s="2" t="s">
         <v>29</v>
       </c>
@@ -7791,7 +3918,7 @@
         <v>0.54810000000000003</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9">
       <c r="A23" s="2" t="s">
         <v>30</v>
       </c>
@@ -7820,7 +3947,7 @@
         <v>5.4100000000000002E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9">
       <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
@@ -7849,7 +3976,7 @@
         <v>0.1094</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9">
       <c r="A25" s="18" t="s">
         <v>32</v>
       </c>
@@ -7878,7 +4005,7 @@
         <v>0.1236</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9">
       <c r="A26" s="18" t="s">
         <v>33</v>
       </c>
@@ -7907,7 +4034,7 @@
         <v>0.56410000000000005</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9">
       <c r="A27" s="18" t="s">
         <v>34</v>
       </c>
@@ -7936,7 +4063,7 @@
         <v>0.6875</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9">
       <c r="A28" s="18" t="s">
         <v>35</v>
       </c>
@@ -7965,7 +4092,7 @@
         <v>0.57689999999999997</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9">
       <c r="A29" s="18" t="s">
         <v>36</v>
       </c>
@@ -7994,7 +4121,7 @@
         <v>0.1724</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9">
       <c r="A30" s="18" t="s">
         <v>37</v>
       </c>
@@ -8023,7 +4150,7 @@
         <v>0.18909999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9">
       <c r="A31" s="18" t="s">
         <v>38</v>
       </c>
@@ -8052,7 +4179,7 @@
         <v>0.36630000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9">
       <c r="A32" s="18" t="s">
         <v>39</v>
       </c>
@@ -8081,7 +4208,7 @@
         <v>0.4667</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9">
       <c r="A33" s="18" t="s">
         <v>40</v>
       </c>
@@ -8110,7 +4237,7 @@
         <v>0.24809999999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9">
       <c r="A34" s="18" t="s">
         <v>41</v>
       </c>
@@ -8139,7 +4266,7 @@
         <v>0.50700000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9">
       <c r="A35" s="18" t="s">
         <v>42</v>
       </c>
@@ -8168,7 +4295,7 @@
         <v>0.29570000000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9">
       <c r="A36" s="18" t="s">
         <v>43</v>
       </c>
@@ -8197,7 +4324,7 @@
         <v>0.26669999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9">
       <c r="A37" s="18" t="s">
         <v>44</v>
       </c>
@@ -8226,7 +4353,7 @@
         <v>6.1400000000000003E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9">
       <c r="A38" s="18" t="s">
         <v>45</v>
       </c>
@@ -8255,7 +4382,7 @@
         <v>0.23699999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9">
       <c r="A39" s="18" t="s">
         <v>46</v>
       </c>
@@ -8284,7 +4411,7 @@
         <v>0.44319999999999998</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9">
       <c r="A40" s="18" t="s">
         <v>47</v>
       </c>
@@ -8313,7 +4440,7 @@
         <v>0.43940000000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9">
       <c r="A41" s="18" t="s">
         <v>48</v>
       </c>
@@ -8342,7 +4469,7 @@
         <v>0.32850000000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9">
       <c r="A42" s="18" t="s">
         <v>49</v>
       </c>
@@ -8371,7 +4498,7 @@
         <v>0.106</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9">
       <c r="A43" s="18" t="s">
         <v>50</v>
       </c>
@@ -8400,7 +4527,7 @@
         <v>0.23730000000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9">
       <c r="A44" s="18" t="s">
         <v>51</v>
       </c>
@@ -8429,7 +4556,7 @@
         <v>0.1951</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9">
       <c r="A45" s="18" t="s">
         <v>17</v>
       </c>
@@ -8458,7 +4585,7 @@
         <v>5.79E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
         <v>3</v>
       </c>
@@ -8513,27 +4640,27 @@
       <selection pane="bottomLeft" activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="7.25" customWidth="1"/>
-    <col min="3" max="3" width="9.1640625" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -8562,7 +4689,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9">
       <c r="A3" s="18" t="s">
         <v>55</v>
       </c>
@@ -8591,7 +4718,7 @@
         <v>0.13450000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9">
       <c r="A4" s="18" t="s">
         <v>56</v>
       </c>
@@ -8620,7 +4747,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9">
       <c r="A5" s="18" t="s">
         <v>57</v>
       </c>
@@ -8649,7 +4776,7 @@
         <v>3.5700000000000003E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9">
       <c r="A6" s="18" t="s">
         <v>58</v>
       </c>
@@ -8678,7 +4805,7 @@
         <v>9.5799999999999996E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9">
       <c r="A7" s="18" t="s">
         <v>59</v>
       </c>
@@ -8707,7 +4834,7 @@
         <v>0.10589999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9">
       <c r="A8" s="18" t="s">
         <v>60</v>
       </c>
@@ -8736,7 +4863,7 @@
         <v>0.1429</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9">
       <c r="A9" s="18" t="s">
         <v>61</v>
       </c>
@@ -8765,7 +4892,7 @@
         <v>0.36459999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9">
       <c r="A10" s="18" t="s">
         <v>62</v>
       </c>
@@ -8794,7 +4921,7 @@
         <v>0.63639999999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9">
       <c r="A11" s="18" t="s">
         <v>63</v>
       </c>
@@ -8823,7 +4950,7 @@
         <v>8.6800000000000002E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9">
       <c r="A12" s="18" t="s">
         <v>64</v>
       </c>
@@ -8852,7 +4979,7 @@
         <v>5.2600000000000001E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9">
       <c r="A13" s="18" t="s">
         <v>65</v>
       </c>
@@ -8881,7 +5008,7 @@
         <v>8.5699999999999998E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9">
       <c r="A14" s="18" t="s">
         <v>66</v>
       </c>
@@ -8910,7 +5037,7 @@
         <v>4.9799999999999997E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9">
       <c r="A15" s="18" t="s">
         <v>67</v>
       </c>
@@ -8939,7 +5066,7 @@
         <v>0.33960000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9">
       <c r="A16" s="18" t="s">
         <v>68</v>
       </c>
@@ -8968,7 +5095,7 @@
         <v>0.29339999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9">
       <c r="A17" s="18" t="s">
         <v>69</v>
       </c>
@@ -8997,7 +5124,7 @@
         <v>0.31680000000000003</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9">
       <c r="A18" s="18" t="s">
         <v>70</v>
       </c>
@@ -9026,7 +5153,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9">
       <c r="A19" s="18" t="s">
         <v>71</v>
       </c>
@@ -9055,7 +5182,7 @@
         <v>0.20300000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9">
       <c r="A20" s="18" t="s">
         <v>72</v>
       </c>
@@ -9084,7 +5211,7 @@
         <v>0.43659999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9">
       <c r="A21" s="18" t="s">
         <v>73</v>
       </c>
@@ -9113,7 +5240,7 @@
         <v>0.1903</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9">
       <c r="A22" s="18" t="s">
         <v>74</v>
       </c>
@@ -9142,7 +5269,7 @@
         <v>9.0899999999999995E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9">
       <c r="A23" s="18" t="s">
         <v>75</v>
       </c>
@@ -9171,7 +5298,7 @@
         <v>0.16109999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9">
       <c r="A24" s="18" t="s">
         <v>76</v>
       </c>
@@ -9200,7 +5327,7 @@
         <v>8.8700000000000001E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9">
       <c r="A25" s="18" t="s">
         <v>77</v>
       </c>
@@ -9229,7 +5356,7 @@
         <v>0.1555</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" s="1" customFormat="1">
       <c r="A26" s="1" t="s">
         <v>3</v>
       </c>
@@ -9284,28 +5411,28 @@
       <selection pane="bottomLeft" activeCell="B24" sqref="B24:I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.4140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="9" width="7" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -9334,7 +5461,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -9363,7 +5490,7 @@
         <v>0.2727</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -9392,7 +5519,7 @@
         <v>0.12839999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -9421,7 +5548,7 @@
         <v>0.17910000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9">
       <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
@@ -9450,7 +5577,7 @@
         <v>9.7100000000000006E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -9479,7 +5606,7 @@
         <v>0.2422</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9">
       <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
@@ -9508,7 +5635,7 @@
         <v>6.1400000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9">
       <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
@@ -9537,7 +5664,7 @@
         <v>7.9600000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9">
       <c r="A10" s="2" t="s">
         <v>25</v>
       </c>
@@ -9566,7 +5693,7 @@
         <v>0.25480000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9">
       <c r="A11" s="2" t="s">
         <v>27</v>
       </c>
@@ -9595,7 +5722,7 @@
         <v>0.28570000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9">
       <c r="A12" s="2" t="s">
         <v>29</v>
       </c>
@@ -9624,7 +5751,7 @@
         <v>0.54810000000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9">
       <c r="A13" s="2" t="s">
         <v>31</v>
       </c>
@@ -9653,7 +5780,7 @@
         <v>0.1094</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9">
       <c r="A14" s="18" t="s">
         <v>33</v>
       </c>
@@ -9682,7 +5809,7 @@
         <v>0.56410000000000005</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9">
       <c r="A15" s="18" t="s">
         <v>35</v>
       </c>
@@ -9711,7 +5838,7 @@
         <v>0.57689999999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9">
       <c r="A16" s="18" t="s">
         <v>37</v>
       </c>
@@ -9740,7 +5867,7 @@
         <v>0.18909999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9">
       <c r="A17" s="18" t="s">
         <v>39</v>
       </c>
@@ -9769,7 +5896,7 @@
         <v>0.4667</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9">
       <c r="A18" s="18" t="s">
         <v>41</v>
       </c>
@@ -9798,7 +5925,7 @@
         <v>0.50700000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9">
       <c r="A19" s="18" t="s">
         <v>43</v>
       </c>
@@ -9827,7 +5954,7 @@
         <v>0.26669999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9">
       <c r="A20" s="18" t="s">
         <v>45</v>
       </c>
@@ -9856,7 +5983,7 @@
         <v>0.23699999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9">
       <c r="A21" s="18" t="s">
         <v>47</v>
       </c>
@@ -9885,7 +6012,7 @@
         <v>0.43940000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9">
       <c r="A22" s="18" t="s">
         <v>49</v>
       </c>
@@ -9914,7 +6041,7 @@
         <v>0.106</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9">
       <c r="A23" s="18" t="s">
         <v>51</v>
       </c>
@@ -9943,7 +6070,7 @@
         <v>0.1951</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
         <v>3</v>
       </c>
@@ -9998,28 +6125,28 @@
       <selection pane="bottomLeft" activeCell="B25" sqref="B25:I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.4140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -10048,7 +6175,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -10077,7 +6204,7 @@
         <v>0.24479999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -10106,7 +6233,7 @@
         <v>0.1232</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -10135,7 +6262,7 @@
         <v>9.8799999999999999E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -10164,7 +6291,7 @@
         <v>9.4000000000000004E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9">
       <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
@@ -10193,7 +6320,7 @@
         <v>0.14099999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9">
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
@@ -10222,7 +6349,7 @@
         <v>4.1099999999999998E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9">
       <c r="A9" s="2" t="s">
         <v>22</v>
       </c>
@@ -10251,7 +6378,7 @@
         <v>0.1333</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9">
       <c r="A10" s="2" t="s">
         <v>24</v>
       </c>
@@ -10280,7 +6407,7 @@
         <v>0.77359999999999995</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9">
       <c r="A11" s="2" t="s">
         <v>26</v>
       </c>
@@ -10309,7 +6436,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9">
       <c r="A12" s="2" t="s">
         <v>28</v>
       </c>
@@ -10338,7 +6465,7 @@
         <v>0.43020000000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9">
       <c r="A13" s="2" t="s">
         <v>30</v>
       </c>
@@ -10367,7 +6494,7 @@
         <v>5.4100000000000002E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9">
       <c r="A14" s="18" t="s">
         <v>32</v>
       </c>
@@ -10396,7 +6523,7 @@
         <v>0.1236</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9">
       <c r="A15" s="18" t="s">
         <v>34</v>
       </c>
@@ -10425,7 +6552,7 @@
         <v>0.6875</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9">
       <c r="A16" s="18" t="s">
         <v>36</v>
       </c>
@@ -10454,7 +6581,7 @@
         <v>0.1724</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9">
       <c r="A17" s="18" t="s">
         <v>38</v>
       </c>
@@ -10483,7 +6610,7 @@
         <v>0.36630000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9">
       <c r="A18" s="18" t="s">
         <v>40</v>
       </c>
@@ -10512,7 +6639,7 @@
         <v>0.24809999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9">
       <c r="A19" s="18" t="s">
         <v>42</v>
       </c>
@@ -10541,7 +6668,7 @@
         <v>0.29570000000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9">
       <c r="A20" s="18" t="s">
         <v>44</v>
       </c>
@@ -10570,7 +6697,7 @@
         <v>6.1400000000000003E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9">
       <c r="A21" s="18" t="s">
         <v>46</v>
       </c>
@@ -10599,7 +6726,7 @@
         <v>0.44319999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9">
       <c r="A22" s="18" t="s">
         <v>48</v>
       </c>
@@ -10628,7 +6755,7 @@
         <v>0.32850000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9">
       <c r="A23" s="18" t="s">
         <v>50</v>
       </c>
@@ -10657,7 +6784,7 @@
         <v>0.23730000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9">
       <c r="A24" s="18" t="s">
         <v>17</v>
       </c>
@@ -10686,7 +6813,7 @@
         <v>5.79E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
         <v>3</v>
       </c>
@@ -10741,25 +6868,25 @@
       <selection pane="bottomLeft" activeCell="B15" sqref="B15:I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="5" max="5" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -10788,7 +6915,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9">
       <c r="A3" s="18" t="s">
         <v>55</v>
       </c>
@@ -10817,7 +6944,7 @@
         <v>0.13450000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9">
       <c r="A4" s="18" t="s">
         <v>57</v>
       </c>
@@ -10846,7 +6973,7 @@
         <v>3.5700000000000003E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9">
       <c r="A5" s="18" t="s">
         <v>59</v>
       </c>
@@ -10875,7 +7002,7 @@
         <v>0.10589999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9">
       <c r="A6" s="18" t="s">
         <v>61</v>
       </c>
@@ -10904,7 +7031,7 @@
         <v>0.36459999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9">
       <c r="A7" s="18" t="s">
         <v>63</v>
       </c>
@@ -10933,7 +7060,7 @@
         <v>8.6800000000000002E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9">
       <c r="A8" s="18" t="s">
         <v>65</v>
       </c>
@@ -10962,7 +7089,7 @@
         <v>8.5699999999999998E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9">
       <c r="A9" s="18" t="s">
         <v>67</v>
       </c>
@@ -10991,7 +7118,7 @@
         <v>0.33960000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9">
       <c r="A10" s="18" t="s">
         <v>69</v>
       </c>
@@ -11020,7 +7147,7 @@
         <v>0.31680000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9">
       <c r="A11" s="18" t="s">
         <v>71</v>
       </c>
@@ -11049,7 +7176,7 @@
         <v>0.20300000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9">
       <c r="A12" s="18" t="s">
         <v>73</v>
       </c>
@@ -11078,7 +7205,7 @@
         <v>0.1903</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9">
       <c r="A13" s="18" t="s">
         <v>75</v>
       </c>
@@ -11107,7 +7234,7 @@
         <v>0.16109999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9">
       <c r="A14" s="18" t="s">
         <v>77</v>
       </c>
@@ -11136,7 +7263,7 @@
         <v>0.1555</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
         <v>3</v>
       </c>
@@ -11173,7 +7300,7 @@
         <v>0.18162500000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -11197,30 +7324,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14:I14"/>
+      <selection pane="bottomLeft" activeCell="R32" sqref="R32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="5" max="5" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -11249,7 +7376,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9">
       <c r="A3" s="18" t="s">
         <v>56</v>
       </c>
@@ -11278,7 +7405,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9">
       <c r="A4" s="18" t="s">
         <v>58</v>
       </c>
@@ -11307,7 +7434,7 @@
         <v>9.5799999999999996E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9">
       <c r="A5" s="18" t="s">
         <v>60</v>
       </c>
@@ -11336,7 +7463,7 @@
         <v>0.1429</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9">
       <c r="A6" s="18" t="s">
         <v>62</v>
       </c>
@@ -11365,7 +7492,7 @@
         <v>0.63639999999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9">
       <c r="A7" s="18" t="s">
         <v>64</v>
       </c>
@@ -11394,7 +7521,7 @@
         <v>5.2600000000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9">
       <c r="A8" s="18" t="s">
         <v>66</v>
       </c>
@@ -11423,7 +7550,7 @@
         <v>4.9799999999999997E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9">
       <c r="A9" s="18" t="s">
         <v>68</v>
       </c>
@@ -11452,7 +7579,7 @@
         <v>0.29339999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9">
       <c r="A10" s="18" t="s">
         <v>70</v>
       </c>
@@ -11481,7 +7608,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9">
       <c r="A11" s="18" t="s">
         <v>72</v>
       </c>
@@ -11510,7 +7637,7 @@
         <v>0.43659999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9">
       <c r="A12" s="18" t="s">
         <v>74</v>
       </c>
@@ -11539,7 +7666,7 @@
         <v>9.0899999999999995E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9">
       <c r="A13" s="18" t="s">
         <v>76</v>
       </c>
@@ -11568,7 +7695,7 @@
         <v>8.8700000000000001E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
